--- a/Administratif/Planification - Schéma GANTT reel.xlsx
+++ b/Administratif/Planification - Schéma GANTT reel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HEIG\PRO\proagenda\proagenda\Administratif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jérôme\Documents\proagenda\Administratif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Tâche</t>
   </si>
@@ -231,13 +231,16 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,8 +330,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF5050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF5050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -638,17 +668,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -682,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -713,99 +731,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -839,12 +764,135 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1149,7 +1197,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CM33" sqref="CM33"/>
+      <selection pane="bottomRight" activeCell="BO20" sqref="BO20:EH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,11 +1240,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:162" ht="26.25" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:162" s="5" customFormat="1" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,203 +1405,203 @@
       <c r="FE2" s="7"/>
       <c r="FF2" s="8"/>
     </row>
-    <row r="3" spans="1:162" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81" t="s">
+    <row r="3" spans="1:162" s="77" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="118" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="118" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="118" t="s">
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="120"/>
-      <c r="AQ3" s="121" t="s">
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="122"/>
-      <c r="AV3" s="122"/>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="122"/>
-      <c r="AY3" s="122"/>
-      <c r="AZ3" s="122"/>
-      <c r="BA3" s="122"/>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="118" t="s">
+      <c r="AR3" s="137"/>
+      <c r="AS3" s="137"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="137"/>
+      <c r="AV3" s="137"/>
+      <c r="AW3" s="137"/>
+      <c r="AX3" s="137"/>
+      <c r="AY3" s="137"/>
+      <c r="AZ3" s="137"/>
+      <c r="BA3" s="137"/>
+      <c r="BB3" s="138"/>
+      <c r="BC3" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="120"/>
-      <c r="BO3" s="118" t="s">
+      <c r="BD3" s="116"/>
+      <c r="BE3" s="116"/>
+      <c r="BF3" s="116"/>
+      <c r="BG3" s="116"/>
+      <c r="BH3" s="116"/>
+      <c r="BI3" s="116"/>
+      <c r="BJ3" s="116"/>
+      <c r="BK3" s="116"/>
+      <c r="BL3" s="116"/>
+      <c r="BM3" s="116"/>
+      <c r="BN3" s="117"/>
+      <c r="BO3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="119"/>
-      <c r="BU3" s="119"/>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="120"/>
-      <c r="CA3" s="124" t="s">
+      <c r="BP3" s="116"/>
+      <c r="BQ3" s="116"/>
+      <c r="BR3" s="116"/>
+      <c r="BS3" s="116"/>
+      <c r="BT3" s="116"/>
+      <c r="BU3" s="116"/>
+      <c r="BV3" s="116"/>
+      <c r="BW3" s="116"/>
+      <c r="BX3" s="116"/>
+      <c r="BY3" s="116"/>
+      <c r="BZ3" s="117"/>
+      <c r="CA3" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="125"/>
-      <c r="CC3" s="125"/>
-      <c r="CD3" s="125"/>
-      <c r="CE3" s="125"/>
-      <c r="CF3" s="125"/>
-      <c r="CG3" s="125"/>
-      <c r="CH3" s="125"/>
-      <c r="CI3" s="125"/>
-      <c r="CJ3" s="125"/>
-      <c r="CK3" s="125"/>
-      <c r="CL3" s="126"/>
-      <c r="CM3" s="118" t="s">
+      <c r="CB3" s="140"/>
+      <c r="CC3" s="140"/>
+      <c r="CD3" s="140"/>
+      <c r="CE3" s="140"/>
+      <c r="CF3" s="140"/>
+      <c r="CG3" s="140"/>
+      <c r="CH3" s="140"/>
+      <c r="CI3" s="140"/>
+      <c r="CJ3" s="140"/>
+      <c r="CK3" s="140"/>
+      <c r="CL3" s="141"/>
+      <c r="CM3" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="CN3" s="119"/>
-      <c r="CO3" s="119"/>
-      <c r="CP3" s="119"/>
-      <c r="CQ3" s="119"/>
-      <c r="CR3" s="119"/>
-      <c r="CS3" s="119"/>
-      <c r="CT3" s="119"/>
-      <c r="CU3" s="119"/>
-      <c r="CV3" s="119"/>
-      <c r="CW3" s="119"/>
-      <c r="CX3" s="120"/>
-      <c r="CY3" s="118" t="s">
+      <c r="CN3" s="116"/>
+      <c r="CO3" s="116"/>
+      <c r="CP3" s="116"/>
+      <c r="CQ3" s="116"/>
+      <c r="CR3" s="116"/>
+      <c r="CS3" s="116"/>
+      <c r="CT3" s="116"/>
+      <c r="CU3" s="116"/>
+      <c r="CV3" s="116"/>
+      <c r="CW3" s="116"/>
+      <c r="CX3" s="117"/>
+      <c r="CY3" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="CZ3" s="119"/>
-      <c r="DA3" s="119"/>
-      <c r="DB3" s="119"/>
-      <c r="DC3" s="119"/>
-      <c r="DD3" s="119"/>
-      <c r="DE3" s="119"/>
-      <c r="DF3" s="119"/>
-      <c r="DG3" s="119"/>
-      <c r="DH3" s="119"/>
-      <c r="DI3" s="119"/>
-      <c r="DJ3" s="120"/>
-      <c r="DK3" s="118" t="s">
+      <c r="CZ3" s="116"/>
+      <c r="DA3" s="116"/>
+      <c r="DB3" s="116"/>
+      <c r="DC3" s="116"/>
+      <c r="DD3" s="116"/>
+      <c r="DE3" s="116"/>
+      <c r="DF3" s="116"/>
+      <c r="DG3" s="116"/>
+      <c r="DH3" s="116"/>
+      <c r="DI3" s="116"/>
+      <c r="DJ3" s="117"/>
+      <c r="DK3" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="DL3" s="119"/>
-      <c r="DM3" s="119"/>
-      <c r="DN3" s="119"/>
-      <c r="DO3" s="119"/>
-      <c r="DP3" s="119"/>
-      <c r="DQ3" s="119"/>
-      <c r="DR3" s="119"/>
-      <c r="DS3" s="119"/>
-      <c r="DT3" s="119"/>
-      <c r="DU3" s="119"/>
-      <c r="DV3" s="120"/>
-      <c r="DW3" s="118" t="s">
+      <c r="DL3" s="116"/>
+      <c r="DM3" s="116"/>
+      <c r="DN3" s="116"/>
+      <c r="DO3" s="116"/>
+      <c r="DP3" s="116"/>
+      <c r="DQ3" s="116"/>
+      <c r="DR3" s="116"/>
+      <c r="DS3" s="116"/>
+      <c r="DT3" s="116"/>
+      <c r="DU3" s="116"/>
+      <c r="DV3" s="117"/>
+      <c r="DW3" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="DX3" s="119"/>
-      <c r="DY3" s="119"/>
-      <c r="DZ3" s="119"/>
-      <c r="EA3" s="119"/>
-      <c r="EB3" s="119"/>
-      <c r="EC3" s="119"/>
-      <c r="ED3" s="119"/>
-      <c r="EE3" s="119"/>
-      <c r="EF3" s="119"/>
-      <c r="EG3" s="119"/>
-      <c r="EH3" s="120"/>
-      <c r="EI3" s="124" t="s">
+      <c r="DX3" s="116"/>
+      <c r="DY3" s="116"/>
+      <c r="DZ3" s="116"/>
+      <c r="EA3" s="116"/>
+      <c r="EB3" s="116"/>
+      <c r="EC3" s="116"/>
+      <c r="ED3" s="116"/>
+      <c r="EE3" s="116"/>
+      <c r="EF3" s="116"/>
+      <c r="EG3" s="116"/>
+      <c r="EH3" s="117"/>
+      <c r="EI3" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="EJ3" s="125"/>
-      <c r="EK3" s="125"/>
-      <c r="EL3" s="125"/>
-      <c r="EM3" s="125"/>
-      <c r="EN3" s="125"/>
-      <c r="EO3" s="125"/>
-      <c r="EP3" s="125"/>
-      <c r="EQ3" s="125"/>
-      <c r="ER3" s="125"/>
-      <c r="ES3" s="125"/>
-      <c r="ET3" s="126"/>
-      <c r="EU3" s="121" t="s">
+      <c r="EJ3" s="140"/>
+      <c r="EK3" s="140"/>
+      <c r="EL3" s="140"/>
+      <c r="EM3" s="140"/>
+      <c r="EN3" s="140"/>
+      <c r="EO3" s="140"/>
+      <c r="EP3" s="140"/>
+      <c r="EQ3" s="140"/>
+      <c r="ER3" s="140"/>
+      <c r="ES3" s="140"/>
+      <c r="ET3" s="141"/>
+      <c r="EU3" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="EV3" s="122"/>
-      <c r="EW3" s="122"/>
-      <c r="EX3" s="122"/>
-      <c r="EY3" s="122"/>
-      <c r="EZ3" s="122"/>
-      <c r="FA3" s="122"/>
-      <c r="FB3" s="122"/>
-      <c r="FC3" s="122"/>
-      <c r="FD3" s="122"/>
-      <c r="FE3" s="122"/>
-      <c r="FF3" s="123"/>
+      <c r="EV3" s="137"/>
+      <c r="EW3" s="137"/>
+      <c r="EX3" s="137"/>
+      <c r="EY3" s="137"/>
+      <c r="EZ3" s="137"/>
+      <c r="FA3" s="137"/>
+      <c r="FB3" s="137"/>
+      <c r="FC3" s="137"/>
+      <c r="FD3" s="137"/>
+      <c r="FE3" s="137"/>
+      <c r="FF3" s="138"/>
     </row>
     <row r="4" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -1591,7 +1639,7 @@
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="79"/>
+      <c r="AD4" s="72"/>
       <c r="AE4" s="13"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
@@ -1603,21 +1651,21 @@
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="100" t="s">
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="102"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="120"/>
       <c r="BN4" s="17"/>
       <c r="BO4" s="15"/>
       <c r="BZ4" s="17"/>
@@ -1627,74 +1675,74 @@
       <c r="DJ4" s="17"/>
       <c r="DV4" s="17"/>
       <c r="EH4" s="17"/>
-      <c r="EI4" s="109" t="s">
+      <c r="EI4" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="EJ4" s="110"/>
-      <c r="EK4" s="110"/>
-      <c r="EL4" s="110"/>
-      <c r="EM4" s="110"/>
-      <c r="EN4" s="110"/>
-      <c r="EO4" s="110"/>
-      <c r="EP4" s="110"/>
-      <c r="EQ4" s="110"/>
-      <c r="ER4" s="110"/>
-      <c r="ES4" s="110"/>
-      <c r="ET4" s="111"/>
-      <c r="EU4" s="100" t="s">
+      <c r="EJ4" s="128"/>
+      <c r="EK4" s="128"/>
+      <c r="EL4" s="128"/>
+      <c r="EM4" s="128"/>
+      <c r="EN4" s="128"/>
+      <c r="EO4" s="128"/>
+      <c r="EP4" s="128"/>
+      <c r="EQ4" s="128"/>
+      <c r="ER4" s="128"/>
+      <c r="ES4" s="128"/>
+      <c r="ET4" s="129"/>
+      <c r="EU4" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="EV4" s="101"/>
-      <c r="EW4" s="101"/>
-      <c r="EX4" s="101"/>
-      <c r="EY4" s="101"/>
-      <c r="EZ4" s="101"/>
-      <c r="FA4" s="101"/>
-      <c r="FB4" s="101"/>
-      <c r="FC4" s="101"/>
-      <c r="FD4" s="101"/>
-      <c r="FE4" s="101"/>
-      <c r="FF4" s="102"/>
+      <c r="EV4" s="119"/>
+      <c r="EW4" s="119"/>
+      <c r="EX4" s="119"/>
+      <c r="EY4" s="119"/>
+      <c r="EZ4" s="119"/>
+      <c r="FA4" s="119"/>
+      <c r="FB4" s="119"/>
+      <c r="FC4" s="119"/>
+      <c r="FD4" s="119"/>
+      <c r="FE4" s="119"/>
+      <c r="FF4" s="120"/>
     </row>
     <row r="5" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="94">
         <v>5</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="93" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="136"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="97"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="34"/>
       <c r="AG5" s="34"/>
@@ -1707,18 +1755,18 @@
       <c r="AN5" s="34"/>
       <c r="AO5" s="34"/>
       <c r="AP5" s="39"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="105"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="122"/>
+      <c r="AS5" s="122"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122"/>
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="122"/>
+      <c r="AY5" s="122"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="122"/>
+      <c r="BB5" s="123"/>
       <c r="BO5" s="15"/>
       <c r="BZ5" s="17"/>
       <c r="CA5" s="15"/>
@@ -1727,30 +1775,30 @@
       <c r="DJ5" s="17"/>
       <c r="DV5" s="17"/>
       <c r="EH5" s="17"/>
-      <c r="EI5" s="112"/>
-      <c r="EJ5" s="113"/>
-      <c r="EK5" s="113"/>
-      <c r="EL5" s="113"/>
-      <c r="EM5" s="113"/>
-      <c r="EN5" s="113"/>
-      <c r="EO5" s="113"/>
-      <c r="EP5" s="113"/>
-      <c r="EQ5" s="113"/>
-      <c r="ER5" s="113"/>
-      <c r="ES5" s="113"/>
-      <c r="ET5" s="114"/>
-      <c r="EU5" s="103"/>
-      <c r="EV5" s="104"/>
-      <c r="EW5" s="104"/>
-      <c r="EX5" s="104"/>
-      <c r="EY5" s="104"/>
-      <c r="EZ5" s="104"/>
-      <c r="FA5" s="104"/>
-      <c r="FB5" s="104"/>
-      <c r="FC5" s="104"/>
-      <c r="FD5" s="104"/>
-      <c r="FE5" s="104"/>
-      <c r="FF5" s="105"/>
+      <c r="EI5" s="130"/>
+      <c r="EJ5" s="131"/>
+      <c r="EK5" s="131"/>
+      <c r="EL5" s="131"/>
+      <c r="EM5" s="131"/>
+      <c r="EN5" s="131"/>
+      <c r="EO5" s="131"/>
+      <c r="EP5" s="131"/>
+      <c r="EQ5" s="131"/>
+      <c r="ER5" s="131"/>
+      <c r="ES5" s="131"/>
+      <c r="ET5" s="132"/>
+      <c r="EU5" s="121"/>
+      <c r="EV5" s="122"/>
+      <c r="EW5" s="122"/>
+      <c r="EX5" s="122"/>
+      <c r="EY5" s="122"/>
+      <c r="EZ5" s="122"/>
+      <c r="FA5" s="122"/>
+      <c r="FB5" s="122"/>
+      <c r="FC5" s="122"/>
+      <c r="FD5" s="122"/>
+      <c r="FE5" s="122"/>
+      <c r="FF5" s="123"/>
     </row>
     <row r="6" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
@@ -1767,18 +1815,18 @@
         <v>54</v>
       </c>
       <c r="F6" s="34"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="35"/>
       <c r="T6" s="36"/>
       <c r="U6" s="36"/>
@@ -1803,18 +1851,18 @@
       <c r="AN6" s="36"/>
       <c r="AO6" s="36"/>
       <c r="AP6" s="37"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="105"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="122"/>
+      <c r="AS6" s="122"/>
+      <c r="AT6" s="122"/>
+      <c r="AU6" s="122"/>
+      <c r="AV6" s="122"/>
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="122"/>
+      <c r="BB6" s="123"/>
       <c r="BO6" s="15"/>
       <c r="BZ6" s="17"/>
       <c r="CA6" s="15"/>
@@ -1823,37 +1871,37 @@
       <c r="DJ6" s="17"/>
       <c r="DV6" s="17"/>
       <c r="EH6" s="17"/>
-      <c r="EI6" s="112"/>
-      <c r="EJ6" s="113"/>
-      <c r="EK6" s="113"/>
-      <c r="EL6" s="113"/>
-      <c r="EM6" s="113"/>
-      <c r="EN6" s="113"/>
-      <c r="EO6" s="113"/>
-      <c r="EP6" s="113"/>
-      <c r="EQ6" s="113"/>
-      <c r="ER6" s="113"/>
-      <c r="ES6" s="113"/>
-      <c r="ET6" s="114"/>
-      <c r="EU6" s="103"/>
-      <c r="EV6" s="104"/>
-      <c r="EW6" s="104"/>
-      <c r="EX6" s="104"/>
-      <c r="EY6" s="104"/>
-      <c r="EZ6" s="104"/>
-      <c r="FA6" s="104"/>
-      <c r="FB6" s="104"/>
-      <c r="FC6" s="104"/>
-      <c r="FD6" s="104"/>
-      <c r="FE6" s="104"/>
-      <c r="FF6" s="105"/>
+      <c r="EI6" s="130"/>
+      <c r="EJ6" s="131"/>
+      <c r="EK6" s="131"/>
+      <c r="EL6" s="131"/>
+      <c r="EM6" s="131"/>
+      <c r="EN6" s="131"/>
+      <c r="EO6" s="131"/>
+      <c r="EP6" s="131"/>
+      <c r="EQ6" s="131"/>
+      <c r="ER6" s="131"/>
+      <c r="ES6" s="131"/>
+      <c r="ET6" s="132"/>
+      <c r="EU6" s="121"/>
+      <c r="EV6" s="122"/>
+      <c r="EW6" s="122"/>
+      <c r="EX6" s="122"/>
+      <c r="EY6" s="122"/>
+      <c r="EZ6" s="122"/>
+      <c r="FA6" s="122"/>
+      <c r="FB6" s="122"/>
+      <c r="FC6" s="122"/>
+      <c r="FD6" s="122"/>
+      <c r="FE6" s="122"/>
+      <c r="FF6" s="123"/>
     </row>
     <row r="7" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="93" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="33">
@@ -1875,42 +1923,42 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="138"/>
-      <c r="X7" s="138"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="138"/>
-      <c r="AG7" s="138"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="138"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="138"/>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="139"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
-      <c r="AX7" s="104"/>
-      <c r="AY7" s="104"/>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="104"/>
-      <c r="BB7" s="105"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="122"/>
+      <c r="AS7" s="122"/>
+      <c r="AT7" s="122"/>
+      <c r="AU7" s="122"/>
+      <c r="AV7" s="122"/>
+      <c r="AW7" s="122"/>
+      <c r="AX7" s="122"/>
+      <c r="AY7" s="122"/>
+      <c r="AZ7" s="122"/>
+      <c r="BA7" s="122"/>
+      <c r="BB7" s="123"/>
       <c r="BO7" s="15"/>
       <c r="BZ7" s="17"/>
       <c r="CA7" s="15"/>
@@ -1919,41 +1967,41 @@
       <c r="DJ7" s="17"/>
       <c r="DV7" s="17"/>
       <c r="EH7" s="17"/>
-      <c r="EI7" s="112"/>
-      <c r="EJ7" s="113"/>
-      <c r="EK7" s="113"/>
-      <c r="EL7" s="113"/>
-      <c r="EM7" s="113"/>
-      <c r="EN7" s="113"/>
-      <c r="EO7" s="113"/>
-      <c r="EP7" s="113"/>
-      <c r="EQ7" s="113"/>
-      <c r="ER7" s="113"/>
-      <c r="ES7" s="113"/>
-      <c r="ET7" s="114"/>
-      <c r="EU7" s="103"/>
-      <c r="EV7" s="104"/>
-      <c r="EW7" s="104"/>
-      <c r="EX7" s="104"/>
-      <c r="EY7" s="104"/>
-      <c r="EZ7" s="104"/>
-      <c r="FA7" s="104"/>
-      <c r="FB7" s="104"/>
-      <c r="FC7" s="104"/>
-      <c r="FD7" s="104"/>
-      <c r="FE7" s="104"/>
-      <c r="FF7" s="105"/>
+      <c r="EI7" s="130"/>
+      <c r="EJ7" s="131"/>
+      <c r="EK7" s="131"/>
+      <c r="EL7" s="131"/>
+      <c r="EM7" s="131"/>
+      <c r="EN7" s="131"/>
+      <c r="EO7" s="131"/>
+      <c r="EP7" s="131"/>
+      <c r="EQ7" s="131"/>
+      <c r="ER7" s="131"/>
+      <c r="ES7" s="131"/>
+      <c r="ET7" s="132"/>
+      <c r="EU7" s="121"/>
+      <c r="EV7" s="122"/>
+      <c r="EW7" s="122"/>
+      <c r="EX7" s="122"/>
+      <c r="EY7" s="122"/>
+      <c r="EZ7" s="122"/>
+      <c r="FA7" s="122"/>
+      <c r="FB7" s="122"/>
+      <c r="FC7" s="122"/>
+      <c r="FD7" s="122"/>
+      <c r="FE7" s="122"/>
+      <c r="FF7" s="123"/>
     </row>
     <row r="8" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="26">
         <v>5</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="78" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="34"/>
@@ -1983,18 +2031,18 @@
       <c r="AD8" s="39"/>
       <c r="AE8" s="15"/>
       <c r="AP8" s="17"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="105"/>
+      <c r="AQ8" s="121"/>
+      <c r="AR8" s="122"/>
+      <c r="AS8" s="122"/>
+      <c r="AT8" s="122"/>
+      <c r="AU8" s="122"/>
+      <c r="AV8" s="122"/>
+      <c r="AW8" s="122"/>
+      <c r="AX8" s="122"/>
+      <c r="AY8" s="122"/>
+      <c r="AZ8" s="122"/>
+      <c r="BA8" s="122"/>
+      <c r="BB8" s="123"/>
       <c r="BC8" s="14"/>
       <c r="BD8" s="14"/>
       <c r="BE8" s="14"/>
@@ -2018,7 +2066,7 @@
       <c r="BW8" s="14"/>
       <c r="BX8" s="14"/>
       <c r="BY8" s="14"/>
-      <c r="BZ8" s="79"/>
+      <c r="BZ8" s="72"/>
       <c r="CA8" s="13"/>
       <c r="CB8" s="14"/>
       <c r="CC8" s="14"/>
@@ -2030,7 +2078,7 @@
       <c r="CI8" s="14"/>
       <c r="CJ8" s="14"/>
       <c r="CK8" s="14"/>
-      <c r="CL8" s="79"/>
+      <c r="CL8" s="72"/>
       <c r="CM8" s="14"/>
       <c r="CN8" s="14"/>
       <c r="CO8" s="14"/>
@@ -2042,7 +2090,7 @@
       <c r="CU8" s="14"/>
       <c r="CV8" s="14"/>
       <c r="CW8" s="14"/>
-      <c r="CX8" s="79"/>
+      <c r="CX8" s="72"/>
       <c r="CY8" s="14"/>
       <c r="CZ8" s="14"/>
       <c r="DA8" s="14"/>
@@ -2054,7 +2102,7 @@
       <c r="DG8" s="14"/>
       <c r="DH8" s="14"/>
       <c r="DI8" s="14"/>
-      <c r="DJ8" s="79"/>
+      <c r="DJ8" s="72"/>
       <c r="DK8" s="14"/>
       <c r="DL8" s="14"/>
       <c r="DM8" s="14"/>
@@ -2066,36 +2114,36 @@
       <c r="DS8" s="14"/>
       <c r="DT8" s="14"/>
       <c r="DU8" s="14"/>
-      <c r="DV8" s="79"/>
+      <c r="DV8" s="72"/>
       <c r="EH8" s="17"/>
-      <c r="EI8" s="112"/>
-      <c r="EJ8" s="113"/>
-      <c r="EK8" s="113"/>
-      <c r="EL8" s="113"/>
-      <c r="EM8" s="113"/>
-      <c r="EN8" s="113"/>
-      <c r="EO8" s="113"/>
-      <c r="EP8" s="113"/>
-      <c r="EQ8" s="113"/>
-      <c r="ER8" s="113"/>
-      <c r="ES8" s="113"/>
-      <c r="ET8" s="114"/>
-      <c r="EU8" s="103"/>
-      <c r="EV8" s="104"/>
-      <c r="EW8" s="104"/>
-      <c r="EX8" s="104"/>
-      <c r="EY8" s="104"/>
-      <c r="EZ8" s="104"/>
-      <c r="FA8" s="104"/>
-      <c r="FB8" s="104"/>
-      <c r="FC8" s="104"/>
-      <c r="FD8" s="104"/>
-      <c r="FE8" s="104"/>
-      <c r="FF8" s="105"/>
+      <c r="EI8" s="130"/>
+      <c r="EJ8" s="131"/>
+      <c r="EK8" s="131"/>
+      <c r="EL8" s="131"/>
+      <c r="EM8" s="131"/>
+      <c r="EN8" s="131"/>
+      <c r="EO8" s="131"/>
+      <c r="EP8" s="131"/>
+      <c r="EQ8" s="131"/>
+      <c r="ER8" s="131"/>
+      <c r="ES8" s="131"/>
+      <c r="ET8" s="132"/>
+      <c r="EU8" s="121"/>
+      <c r="EV8" s="122"/>
+      <c r="EW8" s="122"/>
+      <c r="EX8" s="122"/>
+      <c r="EY8" s="122"/>
+      <c r="EZ8" s="122"/>
+      <c r="FA8" s="122"/>
+      <c r="FB8" s="122"/>
+      <c r="FC8" s="122"/>
+      <c r="FD8" s="122"/>
+      <c r="FE8" s="122"/>
+      <c r="FF8" s="123"/>
     </row>
     <row r="9" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -2124,18 +2172,18 @@
       <c r="AD9" s="17"/>
       <c r="AE9" s="15"/>
       <c r="AP9" s="17"/>
-      <c r="AQ9" s="103"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="104"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="104"/>
-      <c r="BB9" s="105"/>
+      <c r="AQ9" s="121"/>
+      <c r="AR9" s="122"/>
+      <c r="AS9" s="122"/>
+      <c r="AT9" s="122"/>
+      <c r="AU9" s="122"/>
+      <c r="AV9" s="122"/>
+      <c r="AW9" s="122"/>
+      <c r="AX9" s="122"/>
+      <c r="AY9" s="122"/>
+      <c r="AZ9" s="122"/>
+      <c r="BA9" s="122"/>
+      <c r="BB9" s="123"/>
       <c r="BC9" s="36"/>
       <c r="BD9" s="36"/>
       <c r="BE9" s="36"/>
@@ -2153,43 +2201,43 @@
       <c r="DJ9" s="17"/>
       <c r="DV9" s="17"/>
       <c r="EH9" s="17"/>
-      <c r="EI9" s="112"/>
-      <c r="EJ9" s="113"/>
-      <c r="EK9" s="113"/>
-      <c r="EL9" s="113"/>
-      <c r="EM9" s="113"/>
-      <c r="EN9" s="113"/>
-      <c r="EO9" s="113"/>
-      <c r="EP9" s="113"/>
-      <c r="EQ9" s="113"/>
-      <c r="ER9" s="113"/>
-      <c r="ES9" s="113"/>
-      <c r="ET9" s="114"/>
-      <c r="EU9" s="103"/>
-      <c r="EV9" s="104"/>
-      <c r="EW9" s="104"/>
-      <c r="EX9" s="104"/>
-      <c r="EY9" s="104"/>
-      <c r="EZ9" s="104"/>
-      <c r="FA9" s="104"/>
-      <c r="FB9" s="104"/>
-      <c r="FC9" s="104"/>
-      <c r="FD9" s="104"/>
-      <c r="FE9" s="104"/>
-      <c r="FF9" s="105"/>
+      <c r="EI9" s="130"/>
+      <c r="EJ9" s="131"/>
+      <c r="EK9" s="131"/>
+      <c r="EL9" s="131"/>
+      <c r="EM9" s="131"/>
+      <c r="EN9" s="131"/>
+      <c r="EO9" s="131"/>
+      <c r="EP9" s="131"/>
+      <c r="EQ9" s="131"/>
+      <c r="ER9" s="131"/>
+      <c r="ES9" s="131"/>
+      <c r="ET9" s="132"/>
+      <c r="EU9" s="121"/>
+      <c r="EV9" s="122"/>
+      <c r="EW9" s="122"/>
+      <c r="EX9" s="122"/>
+      <c r="EY9" s="122"/>
+      <c r="EZ9" s="122"/>
+      <c r="FA9" s="122"/>
+      <c r="FB9" s="122"/>
+      <c r="FC9" s="122"/>
+      <c r="FD9" s="122"/>
+      <c r="FE9" s="122"/>
+      <c r="FF9" s="123"/>
     </row>
     <row r="10" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="133" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="142">
+      <c r="D10" s="103">
         <v>5</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="103" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="34"/>
@@ -2198,94 +2246,137 @@
       <c r="AD10" s="17"/>
       <c r="AE10" s="15"/>
       <c r="AP10" s="17"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="104"/>
-      <c r="AZ10" s="104"/>
-      <c r="BA10" s="104"/>
-      <c r="BB10" s="105"/>
-      <c r="BC10" s="138"/>
-      <c r="BD10" s="138"/>
-      <c r="BE10" s="138"/>
-      <c r="BF10" s="138"/>
-      <c r="BG10" s="138"/>
-      <c r="BH10" s="138"/>
-      <c r="BI10" s="138"/>
-      <c r="BJ10" s="138"/>
-      <c r="BK10" s="138"/>
-      <c r="BL10" s="138"/>
-      <c r="BM10" s="138"/>
-      <c r="BN10" s="138"/>
-      <c r="BO10" s="134"/>
-      <c r="BP10" s="135"/>
-      <c r="BQ10" s="135"/>
-      <c r="BR10" s="135"/>
-      <c r="BS10" s="135"/>
-      <c r="BT10" s="135"/>
-      <c r="BU10" s="135"/>
-      <c r="BV10" s="135"/>
-      <c r="BW10" s="135"/>
-      <c r="BX10" s="135"/>
-      <c r="BY10" s="135"/>
-      <c r="BZ10" s="136"/>
-      <c r="CA10" s="15"/>
-      <c r="CL10" s="17"/>
-      <c r="CX10" s="17"/>
-      <c r="DJ10" s="17"/>
-      <c r="DK10" s="36"/>
-      <c r="DL10" s="36"/>
-      <c r="DM10" s="36"/>
-      <c r="DN10" s="36"/>
-      <c r="DO10" s="36"/>
-      <c r="DP10" s="36"/>
-      <c r="DQ10" s="36"/>
-      <c r="DR10" s="36"/>
-      <c r="DS10" s="36"/>
-      <c r="DT10" s="36"/>
-      <c r="DU10" s="36"/>
-      <c r="DV10" s="37"/>
-      <c r="EH10" s="17"/>
-      <c r="EI10" s="112"/>
-      <c r="EJ10" s="113"/>
-      <c r="EK10" s="113"/>
-      <c r="EL10" s="113"/>
-      <c r="EM10" s="113"/>
-      <c r="EN10" s="113"/>
-      <c r="EO10" s="113"/>
-      <c r="EP10" s="113"/>
-      <c r="EQ10" s="113"/>
-      <c r="ER10" s="113"/>
-      <c r="ES10" s="113"/>
-      <c r="ET10" s="114"/>
-      <c r="EU10" s="103"/>
-      <c r="EV10" s="104"/>
-      <c r="EW10" s="104"/>
-      <c r="EX10" s="104"/>
-      <c r="EY10" s="104"/>
-      <c r="EZ10" s="104"/>
-      <c r="FA10" s="104"/>
-      <c r="FB10" s="104"/>
-      <c r="FC10" s="104"/>
-      <c r="FD10" s="104"/>
-      <c r="FE10" s="104"/>
-      <c r="FF10" s="105"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="122"/>
+      <c r="AS10" s="122"/>
+      <c r="AT10" s="122"/>
+      <c r="AU10" s="122"/>
+      <c r="AV10" s="122"/>
+      <c r="AW10" s="122"/>
+      <c r="AX10" s="122"/>
+      <c r="AY10" s="122"/>
+      <c r="AZ10" s="122"/>
+      <c r="BA10" s="122"/>
+      <c r="BB10" s="123"/>
+      <c r="BC10" s="99"/>
+      <c r="BD10" s="99"/>
+      <c r="BE10" s="99"/>
+      <c r="BF10" s="99"/>
+      <c r="BG10" s="99"/>
+      <c r="BH10" s="99"/>
+      <c r="BI10" s="99"/>
+      <c r="BJ10" s="99"/>
+      <c r="BK10" s="99"/>
+      <c r="BL10" s="99"/>
+      <c r="BM10" s="99"/>
+      <c r="BN10" s="99"/>
+      <c r="BO10" s="98"/>
+      <c r="BP10" s="99"/>
+      <c r="BQ10" s="99"/>
+      <c r="BR10" s="99"/>
+      <c r="BS10" s="99"/>
+      <c r="BT10" s="99"/>
+      <c r="BU10" s="99"/>
+      <c r="BV10" s="99"/>
+      <c r="BW10" s="99"/>
+      <c r="BX10" s="99"/>
+      <c r="BY10" s="99"/>
+      <c r="BZ10" s="100"/>
+      <c r="CA10" s="98"/>
+      <c r="CB10" s="99"/>
+      <c r="CC10" s="99"/>
+      <c r="CD10" s="99"/>
+      <c r="CE10" s="99"/>
+      <c r="CF10" s="99"/>
+      <c r="CG10" s="99"/>
+      <c r="CH10" s="99"/>
+      <c r="CI10" s="99"/>
+      <c r="CJ10" s="99"/>
+      <c r="CK10" s="99"/>
+      <c r="CL10" s="100"/>
+      <c r="CM10" s="99"/>
+      <c r="CN10" s="99"/>
+      <c r="CO10" s="99"/>
+      <c r="CP10" s="99"/>
+      <c r="CQ10" s="99"/>
+      <c r="CR10" s="99"/>
+      <c r="CS10" s="99"/>
+      <c r="CT10" s="99"/>
+      <c r="CU10" s="99"/>
+      <c r="CV10" s="99"/>
+      <c r="CW10" s="99"/>
+      <c r="CX10" s="100"/>
+      <c r="CY10" s="99"/>
+      <c r="CZ10" s="99"/>
+      <c r="DA10" s="99"/>
+      <c r="DB10" s="99"/>
+      <c r="DC10" s="99"/>
+      <c r="DD10" s="99"/>
+      <c r="DE10" s="99"/>
+      <c r="DF10" s="99"/>
+      <c r="DG10" s="99"/>
+      <c r="DH10" s="99"/>
+      <c r="DI10" s="99"/>
+      <c r="DJ10" s="100"/>
+      <c r="DK10" s="99"/>
+      <c r="DL10" s="99"/>
+      <c r="DM10" s="99"/>
+      <c r="DN10" s="99"/>
+      <c r="DO10" s="99"/>
+      <c r="DP10" s="99"/>
+      <c r="DQ10" s="99"/>
+      <c r="DR10" s="99"/>
+      <c r="DS10" s="99"/>
+      <c r="DT10" s="99"/>
+      <c r="DU10" s="99"/>
+      <c r="DV10" s="100"/>
+      <c r="DW10" s="148"/>
+      <c r="DX10" s="148"/>
+      <c r="DY10" s="148"/>
+      <c r="DZ10" s="148"/>
+      <c r="EA10" s="148"/>
+      <c r="EB10" s="148"/>
+      <c r="EC10" s="148"/>
+      <c r="ED10" s="148"/>
+      <c r="EE10" s="148"/>
+      <c r="EF10" s="148"/>
+      <c r="EG10" s="148"/>
+      <c r="EH10" s="149"/>
+      <c r="EI10" s="130"/>
+      <c r="EJ10" s="131"/>
+      <c r="EK10" s="131"/>
+      <c r="EL10" s="131"/>
+      <c r="EM10" s="131"/>
+      <c r="EN10" s="131"/>
+      <c r="EO10" s="131"/>
+      <c r="EP10" s="131"/>
+      <c r="EQ10" s="131"/>
+      <c r="ER10" s="131"/>
+      <c r="ES10" s="131"/>
+      <c r="ET10" s="132"/>
+      <c r="EU10" s="121"/>
+      <c r="EV10" s="122"/>
+      <c r="EW10" s="122"/>
+      <c r="EX10" s="122"/>
+      <c r="EY10" s="122"/>
+      <c r="EZ10" s="122"/>
+      <c r="FA10" s="122"/>
+      <c r="FB10" s="122"/>
+      <c r="FC10" s="122"/>
+      <c r="FD10" s="122"/>
+      <c r="FE10" s="122"/>
+      <c r="FF10" s="123"/>
     </row>
     <row r="11" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="142" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="142">
+      <c r="D11" s="147">
         <v>2</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="147" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="34"/>
@@ -2294,85 +2385,85 @@
       <c r="AD11" s="17"/>
       <c r="AE11" s="15"/>
       <c r="AP11" s="17"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="104"/>
-      <c r="AY11" s="104"/>
-      <c r="AZ11" s="104"/>
-      <c r="BA11" s="104"/>
-      <c r="BB11" s="105"/>
-      <c r="BC11" s="138"/>
-      <c r="BD11" s="138"/>
-      <c r="BE11" s="138"/>
-      <c r="BF11" s="138"/>
-      <c r="BG11" s="138"/>
-      <c r="BH11" s="138"/>
-      <c r="BI11" s="138"/>
-      <c r="BJ11" s="138"/>
-      <c r="BK11" s="138"/>
-      <c r="BL11" s="138"/>
-      <c r="BM11" s="138"/>
-      <c r="BN11" s="138"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="122"/>
+      <c r="AU11" s="122"/>
+      <c r="AV11" s="122"/>
+      <c r="AW11" s="122"/>
+      <c r="AX11" s="122"/>
+      <c r="AY11" s="122"/>
+      <c r="AZ11" s="122"/>
+      <c r="BA11" s="122"/>
+      <c r="BB11" s="123"/>
+      <c r="BC11" s="142"/>
+      <c r="BD11" s="142"/>
+      <c r="BE11" s="142"/>
+      <c r="BF11" s="142"/>
+      <c r="BG11" s="142"/>
+      <c r="BH11" s="142"/>
+      <c r="BI11" s="142"/>
+      <c r="BJ11" s="142"/>
+      <c r="BK11" s="142"/>
+      <c r="BL11" s="142"/>
+      <c r="BM11" s="142"/>
+      <c r="BN11" s="142"/>
       <c r="BO11" s="15"/>
       <c r="BZ11" s="17"/>
       <c r="CA11" s="15"/>
       <c r="CL11" s="17"/>
       <c r="CX11" s="17"/>
       <c r="DJ11" s="17"/>
-      <c r="DK11" s="135"/>
-      <c r="DL11" s="135"/>
-      <c r="DM11" s="135"/>
-      <c r="DN11" s="135"/>
-      <c r="DO11" s="135"/>
-      <c r="DP11" s="135"/>
-      <c r="DQ11" s="135"/>
-      <c r="DR11" s="135"/>
-      <c r="DS11" s="135"/>
-      <c r="DT11" s="135"/>
-      <c r="DU11" s="135"/>
-      <c r="DV11" s="136"/>
-      <c r="DW11" s="135"/>
+      <c r="DK11" s="96"/>
+      <c r="DL11" s="96"/>
+      <c r="DM11" s="96"/>
+      <c r="DN11" s="96"/>
+      <c r="DO11" s="96"/>
+      <c r="DP11" s="96"/>
+      <c r="DQ11" s="96"/>
+      <c r="DR11" s="96"/>
+      <c r="DS11" s="96"/>
+      <c r="DT11" s="96"/>
+      <c r="DU11" s="96"/>
+      <c r="DV11" s="97"/>
+      <c r="DW11" s="96"/>
       <c r="EH11" s="17"/>
-      <c r="EI11" s="112"/>
-      <c r="EJ11" s="113"/>
-      <c r="EK11" s="113"/>
-      <c r="EL11" s="113"/>
-      <c r="EM11" s="113"/>
-      <c r="EN11" s="113"/>
-      <c r="EO11" s="113"/>
-      <c r="EP11" s="113"/>
-      <c r="EQ11" s="113"/>
-      <c r="ER11" s="113"/>
-      <c r="ES11" s="113"/>
-      <c r="ET11" s="114"/>
-      <c r="EU11" s="103"/>
-      <c r="EV11" s="104"/>
-      <c r="EW11" s="104"/>
-      <c r="EX11" s="104"/>
-      <c r="EY11" s="104"/>
-      <c r="EZ11" s="104"/>
-      <c r="FA11" s="104"/>
-      <c r="FB11" s="104"/>
-      <c r="FC11" s="104"/>
-      <c r="FD11" s="104"/>
-      <c r="FE11" s="104"/>
-      <c r="FF11" s="105"/>
+      <c r="EI11" s="130"/>
+      <c r="EJ11" s="131"/>
+      <c r="EK11" s="131"/>
+      <c r="EL11" s="131"/>
+      <c r="EM11" s="131"/>
+      <c r="EN11" s="131"/>
+      <c r="EO11" s="131"/>
+      <c r="EP11" s="131"/>
+      <c r="EQ11" s="131"/>
+      <c r="ER11" s="131"/>
+      <c r="ES11" s="131"/>
+      <c r="ET11" s="132"/>
+      <c r="EU11" s="121"/>
+      <c r="EV11" s="122"/>
+      <c r="EW11" s="122"/>
+      <c r="EX11" s="122"/>
+      <c r="EY11" s="122"/>
+      <c r="EZ11" s="122"/>
+      <c r="FA11" s="122"/>
+      <c r="FB11" s="122"/>
+      <c r="FC11" s="122"/>
+      <c r="FD11" s="122"/>
+      <c r="FE11" s="122"/>
+      <c r="FF11" s="123"/>
     </row>
     <row r="12" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="147">
         <v>4</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="147" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="34"/>
@@ -2381,72 +2472,125 @@
       <c r="AD12" s="17"/>
       <c r="AE12" s="15"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="103"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="104"/>
-      <c r="AW12" s="104"/>
-      <c r="AX12" s="104"/>
-      <c r="AY12" s="104"/>
-      <c r="AZ12" s="104"/>
-      <c r="BA12" s="104"/>
-      <c r="BB12" s="105"/>
-      <c r="BO12" s="15"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="15"/>
-      <c r="CL12" s="17"/>
-      <c r="CX12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="46"/>
-      <c r="DL12" s="46"/>
-      <c r="DM12" s="46"/>
-      <c r="DN12" s="46"/>
-      <c r="DO12" s="46"/>
-      <c r="DP12" s="46"/>
-      <c r="DQ12" s="46"/>
-      <c r="DR12" s="46"/>
-      <c r="DS12" s="46"/>
-      <c r="DT12" s="46"/>
-      <c r="DU12" s="46"/>
-      <c r="DV12" s="47"/>
-      <c r="EH12" s="17"/>
-      <c r="EI12" s="112"/>
-      <c r="EJ12" s="113"/>
-      <c r="EK12" s="113"/>
-      <c r="EL12" s="113"/>
-      <c r="EM12" s="113"/>
-      <c r="EN12" s="113"/>
-      <c r="EO12" s="113"/>
-      <c r="EP12" s="113"/>
-      <c r="EQ12" s="113"/>
-      <c r="ER12" s="113"/>
-      <c r="ES12" s="113"/>
-      <c r="ET12" s="114"/>
-      <c r="EU12" s="103"/>
-      <c r="EV12" s="104"/>
-      <c r="EW12" s="104"/>
-      <c r="EX12" s="104"/>
-      <c r="EY12" s="104"/>
-      <c r="EZ12" s="104"/>
-      <c r="FA12" s="104"/>
-      <c r="FB12" s="104"/>
-      <c r="FC12" s="104"/>
-      <c r="FD12" s="104"/>
-      <c r="FE12" s="104"/>
-      <c r="FF12" s="105"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="122"/>
+      <c r="AS12" s="122"/>
+      <c r="AT12" s="122"/>
+      <c r="AU12" s="122"/>
+      <c r="AV12" s="122"/>
+      <c r="AW12" s="122"/>
+      <c r="AX12" s="122"/>
+      <c r="AY12" s="122"/>
+      <c r="AZ12" s="122"/>
+      <c r="BA12" s="122"/>
+      <c r="BB12" s="123"/>
+      <c r="BO12" s="144"/>
+      <c r="BP12" s="142"/>
+      <c r="BQ12" s="142"/>
+      <c r="BR12" s="142"/>
+      <c r="BS12" s="142"/>
+      <c r="BT12" s="142"/>
+      <c r="BU12" s="142"/>
+      <c r="BV12" s="142"/>
+      <c r="BW12" s="142"/>
+      <c r="BX12" s="142"/>
+      <c r="BY12" s="142"/>
+      <c r="BZ12" s="143"/>
+      <c r="CA12" s="144"/>
+      <c r="CB12" s="142"/>
+      <c r="CC12" s="142"/>
+      <c r="CD12" s="142"/>
+      <c r="CE12" s="142"/>
+      <c r="CF12" s="142"/>
+      <c r="CG12" s="142"/>
+      <c r="CH12" s="142"/>
+      <c r="CI12" s="142"/>
+      <c r="CJ12" s="142"/>
+      <c r="CK12" s="142"/>
+      <c r="CL12" s="143"/>
+      <c r="CM12" s="142"/>
+      <c r="CN12" s="142"/>
+      <c r="CO12" s="142"/>
+      <c r="CP12" s="142"/>
+      <c r="CQ12" s="142"/>
+      <c r="CR12" s="142"/>
+      <c r="CS12" s="142"/>
+      <c r="CT12" s="142"/>
+      <c r="CU12" s="142"/>
+      <c r="CV12" s="142"/>
+      <c r="CW12" s="142"/>
+      <c r="CX12" s="143"/>
+      <c r="CY12" s="142"/>
+      <c r="CZ12" s="142"/>
+      <c r="DA12" s="142"/>
+      <c r="DB12" s="142"/>
+      <c r="DC12" s="142"/>
+      <c r="DD12" s="142"/>
+      <c r="DE12" s="142"/>
+      <c r="DF12" s="142"/>
+      <c r="DG12" s="142"/>
+      <c r="DH12" s="142"/>
+      <c r="DI12" s="142"/>
+      <c r="DJ12" s="143"/>
+      <c r="DK12" s="142"/>
+      <c r="DL12" s="142"/>
+      <c r="DM12" s="142"/>
+      <c r="DN12" s="142"/>
+      <c r="DO12" s="142"/>
+      <c r="DP12" s="142"/>
+      <c r="DQ12" s="142"/>
+      <c r="DR12" s="142"/>
+      <c r="DS12" s="142"/>
+      <c r="DT12" s="142"/>
+      <c r="DU12" s="142"/>
+      <c r="DV12" s="143"/>
+      <c r="DW12" s="142"/>
+      <c r="DX12" s="142"/>
+      <c r="DY12" s="142"/>
+      <c r="DZ12" s="142"/>
+      <c r="EA12" s="142"/>
+      <c r="EB12" s="142"/>
+      <c r="EC12" s="142"/>
+      <c r="ED12" s="142"/>
+      <c r="EE12" s="142"/>
+      <c r="EF12" s="142"/>
+      <c r="EG12" s="142"/>
+      <c r="EH12" s="143"/>
+      <c r="EI12" s="130"/>
+      <c r="EJ12" s="131"/>
+      <c r="EK12" s="131"/>
+      <c r="EL12" s="131"/>
+      <c r="EM12" s="131"/>
+      <c r="EN12" s="131"/>
+      <c r="EO12" s="131"/>
+      <c r="EP12" s="131"/>
+      <c r="EQ12" s="131"/>
+      <c r="ER12" s="131"/>
+      <c r="ES12" s="131"/>
+      <c r="ET12" s="132"/>
+      <c r="EU12" s="121"/>
+      <c r="EV12" s="122"/>
+      <c r="EW12" s="122"/>
+      <c r="EX12" s="122"/>
+      <c r="EY12" s="122"/>
+      <c r="EZ12" s="122"/>
+      <c r="FA12" s="122"/>
+      <c r="FB12" s="122"/>
+      <c r="FC12" s="122"/>
+      <c r="FD12" s="122"/>
+      <c r="FE12" s="122"/>
+      <c r="FF12" s="123"/>
     </row>
     <row r="13" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="147">
         <v>1</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="147" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="34"/>
@@ -2455,74 +2599,127 @@
       <c r="AD13" s="17"/>
       <c r="AE13" s="15"/>
       <c r="AP13" s="17"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="104"/>
-      <c r="AY13" s="104"/>
-      <c r="AZ13" s="104"/>
-      <c r="BA13" s="104"/>
-      <c r="BB13" s="105"/>
-      <c r="BO13" s="15"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="15"/>
-      <c r="CL13" s="17"/>
-      <c r="CX13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="46"/>
-      <c r="DL13" s="46"/>
-      <c r="DM13" s="46"/>
-      <c r="DN13" s="46"/>
-      <c r="DO13" s="46"/>
-      <c r="DP13" s="46"/>
-      <c r="DQ13" s="46"/>
-      <c r="DR13" s="46"/>
-      <c r="DS13" s="46"/>
-      <c r="DT13" s="46"/>
-      <c r="DU13" s="46"/>
-      <c r="DV13" s="47"/>
-      <c r="EH13" s="17"/>
-      <c r="EI13" s="112"/>
-      <c r="EJ13" s="113"/>
-      <c r="EK13" s="113"/>
-      <c r="EL13" s="113"/>
-      <c r="EM13" s="113"/>
-      <c r="EN13" s="113"/>
-      <c r="EO13" s="113"/>
-      <c r="EP13" s="113"/>
-      <c r="EQ13" s="113"/>
-      <c r="ER13" s="113"/>
-      <c r="ES13" s="113"/>
-      <c r="ET13" s="114"/>
-      <c r="EU13" s="103"/>
-      <c r="EV13" s="104"/>
-      <c r="EW13" s="104"/>
-      <c r="EX13" s="104"/>
-      <c r="EY13" s="104"/>
-      <c r="EZ13" s="104"/>
-      <c r="FA13" s="104"/>
-      <c r="FB13" s="104"/>
-      <c r="FC13" s="104"/>
-      <c r="FD13" s="104"/>
-      <c r="FE13" s="104"/>
-      <c r="FF13" s="105"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="122"/>
+      <c r="AS13" s="122"/>
+      <c r="AT13" s="122"/>
+      <c r="AU13" s="122"/>
+      <c r="AV13" s="122"/>
+      <c r="AW13" s="122"/>
+      <c r="AX13" s="122"/>
+      <c r="AY13" s="122"/>
+      <c r="AZ13" s="122"/>
+      <c r="BA13" s="122"/>
+      <c r="BB13" s="123"/>
+      <c r="BO13" s="144"/>
+      <c r="BP13" s="142"/>
+      <c r="BQ13" s="142"/>
+      <c r="BR13" s="142"/>
+      <c r="BS13" s="142"/>
+      <c r="BT13" s="142"/>
+      <c r="BU13" s="142"/>
+      <c r="BV13" s="142"/>
+      <c r="BW13" s="142"/>
+      <c r="BX13" s="142"/>
+      <c r="BY13" s="142"/>
+      <c r="BZ13" s="143"/>
+      <c r="CA13" s="144"/>
+      <c r="CB13" s="142"/>
+      <c r="CC13" s="142"/>
+      <c r="CD13" s="142"/>
+      <c r="CE13" s="142"/>
+      <c r="CF13" s="142"/>
+      <c r="CG13" s="142"/>
+      <c r="CH13" s="142"/>
+      <c r="CI13" s="142"/>
+      <c r="CJ13" s="142"/>
+      <c r="CK13" s="142"/>
+      <c r="CL13" s="143"/>
+      <c r="CM13" s="142"/>
+      <c r="CN13" s="142"/>
+      <c r="CO13" s="142"/>
+      <c r="CP13" s="142"/>
+      <c r="CQ13" s="142"/>
+      <c r="CR13" s="142"/>
+      <c r="CS13" s="142"/>
+      <c r="CT13" s="142"/>
+      <c r="CU13" s="142"/>
+      <c r="CV13" s="142"/>
+      <c r="CW13" s="142"/>
+      <c r="CX13" s="143"/>
+      <c r="CY13" s="142"/>
+      <c r="CZ13" s="142"/>
+      <c r="DA13" s="142"/>
+      <c r="DB13" s="142"/>
+      <c r="DC13" s="142"/>
+      <c r="DD13" s="142"/>
+      <c r="DE13" s="142"/>
+      <c r="DF13" s="142"/>
+      <c r="DG13" s="142"/>
+      <c r="DH13" s="142"/>
+      <c r="DI13" s="142"/>
+      <c r="DJ13" s="143"/>
+      <c r="DK13" s="142"/>
+      <c r="DL13" s="142"/>
+      <c r="DM13" s="142"/>
+      <c r="DN13" s="142"/>
+      <c r="DO13" s="142"/>
+      <c r="DP13" s="142"/>
+      <c r="DQ13" s="142"/>
+      <c r="DR13" s="142"/>
+      <c r="DS13" s="142"/>
+      <c r="DT13" s="142"/>
+      <c r="DU13" s="142"/>
+      <c r="DV13" s="143"/>
+      <c r="DW13" s="142"/>
+      <c r="DX13" s="142"/>
+      <c r="DY13" s="142"/>
+      <c r="DZ13" s="142"/>
+      <c r="EA13" s="142"/>
+      <c r="EB13" s="142"/>
+      <c r="EC13" s="142"/>
+      <c r="ED13" s="142"/>
+      <c r="EE13" s="142"/>
+      <c r="EF13" s="142"/>
+      <c r="EG13" s="142"/>
+      <c r="EH13" s="143"/>
+      <c r="EI13" s="130"/>
+      <c r="EJ13" s="131"/>
+      <c r="EK13" s="131"/>
+      <c r="EL13" s="131"/>
+      <c r="EM13" s="131"/>
+      <c r="EN13" s="131"/>
+      <c r="EO13" s="131"/>
+      <c r="EP13" s="131"/>
+      <c r="EQ13" s="131"/>
+      <c r="ER13" s="131"/>
+      <c r="ES13" s="131"/>
+      <c r="ET13" s="132"/>
+      <c r="EU13" s="121"/>
+      <c r="EV13" s="122"/>
+      <c r="EW13" s="122"/>
+      <c r="EX13" s="122"/>
+      <c r="EY13" s="122"/>
+      <c r="EZ13" s="122"/>
+      <c r="FA13" s="122"/>
+      <c r="FB13" s="122"/>
+      <c r="FC13" s="122"/>
+      <c r="FD13" s="122"/>
+      <c r="FE13" s="122"/>
+      <c r="FF13" s="123"/>
     </row>
     <row r="14" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="94">
         <v>2</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="94" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="34"/>
@@ -2541,120 +2738,131 @@
       <c r="AD14" s="39"/>
       <c r="AE14" s="15"/>
       <c r="AP14" s="17"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="104"/>
-      <c r="AW14" s="104"/>
-      <c r="AX14" s="104"/>
-      <c r="AY14" s="104"/>
-      <c r="AZ14" s="104"/>
-      <c r="BA14" s="104"/>
-      <c r="BB14" s="105"/>
-      <c r="BC14" s="135"/>
-      <c r="BD14" s="135"/>
-      <c r="BE14" s="135"/>
-      <c r="BF14" s="135"/>
-      <c r="BG14" s="135"/>
-      <c r="BH14" s="135"/>
-      <c r="BI14" s="135"/>
-      <c r="BJ14" s="135"/>
-      <c r="BK14" s="135"/>
-      <c r="BL14" s="135"/>
-      <c r="BM14" s="135"/>
-      <c r="BN14" s="136"/>
-      <c r="BO14" s="36"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="36"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="36"/>
-      <c r="BV14" s="36"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="36"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="37"/>
-      <c r="CA14" s="36"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CJ14" s="36"/>
-      <c r="CK14" s="36"/>
-      <c r="CL14" s="37"/>
-      <c r="CM14" s="36"/>
-      <c r="CN14" s="36"/>
-      <c r="CO14" s="36"/>
-      <c r="CP14" s="36"/>
-      <c r="CQ14" s="36"/>
-      <c r="CR14" s="36"/>
-      <c r="CS14" s="36"/>
-      <c r="CT14" s="36"/>
-      <c r="CU14" s="36"/>
-      <c r="CV14" s="36"/>
-      <c r="CW14" s="36"/>
-      <c r="CX14" s="37"/>
-      <c r="CY14" s="34"/>
-      <c r="CZ14" s="34"/>
-      <c r="DA14" s="34"/>
-      <c r="DB14" s="34"/>
-      <c r="DC14" s="34"/>
-      <c r="DD14" s="34"/>
-      <c r="DE14" s="34"/>
-      <c r="DF14" s="34"/>
-      <c r="DG14" s="34"/>
-      <c r="DH14" s="34"/>
-      <c r="DI14" s="34"/>
-      <c r="DJ14" s="39"/>
-      <c r="DK14" s="34"/>
-      <c r="DL14" s="34"/>
-      <c r="DM14" s="34"/>
-      <c r="DN14" s="34"/>
-      <c r="DO14" s="34"/>
-      <c r="DP14" s="34"/>
-      <c r="DQ14" s="34"/>
-      <c r="DR14" s="34"/>
-      <c r="DS14" s="34"/>
-      <c r="DT14" s="34"/>
-      <c r="DU14" s="34"/>
-      <c r="DV14" s="39"/>
-      <c r="EH14" s="17"/>
-      <c r="EI14" s="112"/>
-      <c r="EJ14" s="113"/>
-      <c r="EK14" s="113"/>
-      <c r="EL14" s="113"/>
-      <c r="EM14" s="113"/>
-      <c r="EN14" s="113"/>
-      <c r="EO14" s="113"/>
-      <c r="EP14" s="113"/>
-      <c r="EQ14" s="113"/>
-      <c r="ER14" s="113"/>
-      <c r="ES14" s="113"/>
-      <c r="ET14" s="114"/>
-      <c r="EU14" s="103"/>
-      <c r="EV14" s="104"/>
-      <c r="EW14" s="104"/>
-      <c r="EX14" s="104"/>
-      <c r="EY14" s="104"/>
-      <c r="EZ14" s="104"/>
-      <c r="FA14" s="104"/>
-      <c r="FB14" s="104"/>
-      <c r="FC14" s="104"/>
-      <c r="FD14" s="104"/>
-      <c r="FE14" s="104"/>
-      <c r="FF14" s="105"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="122"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="122"/>
+      <c r="AU14" s="122"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="122"/>
+      <c r="AX14" s="122"/>
+      <c r="AY14" s="122"/>
+      <c r="AZ14" s="122"/>
+      <c r="BA14" s="122"/>
+      <c r="BB14" s="123"/>
+      <c r="BC14" s="96"/>
+      <c r="BD14" s="96"/>
+      <c r="BE14" s="96"/>
+      <c r="BF14" s="96"/>
+      <c r="BG14" s="96"/>
+      <c r="BH14" s="96"/>
+      <c r="BI14" s="96"/>
+      <c r="BJ14" s="96"/>
+      <c r="BK14" s="96"/>
+      <c r="BL14" s="96"/>
+      <c r="BM14" s="96"/>
+      <c r="BN14" s="97"/>
+      <c r="BO14" s="99"/>
+      <c r="BP14" s="99"/>
+      <c r="BQ14" s="99"/>
+      <c r="BR14" s="99"/>
+      <c r="BS14" s="99"/>
+      <c r="BT14" s="99"/>
+      <c r="BU14" s="99"/>
+      <c r="BV14" s="99"/>
+      <c r="BW14" s="99"/>
+      <c r="BX14" s="99"/>
+      <c r="BY14" s="99"/>
+      <c r="BZ14" s="100"/>
+      <c r="CA14" s="99"/>
+      <c r="CB14" s="99"/>
+      <c r="CC14" s="99"/>
+      <c r="CD14" s="99"/>
+      <c r="CE14" s="99"/>
+      <c r="CF14" s="99"/>
+      <c r="CG14" s="99"/>
+      <c r="CH14" s="99"/>
+      <c r="CI14" s="99"/>
+      <c r="CJ14" s="99"/>
+      <c r="CK14" s="99"/>
+      <c r="CL14" s="100"/>
+      <c r="CM14" s="99"/>
+      <c r="CN14" s="99"/>
+      <c r="CO14" s="99"/>
+      <c r="CP14" s="99"/>
+      <c r="CQ14" s="99"/>
+      <c r="CR14" s="99"/>
+      <c r="CS14" s="99"/>
+      <c r="CT14" s="99"/>
+      <c r="CU14" s="99"/>
+      <c r="CV14" s="99"/>
+      <c r="CW14" s="99"/>
+      <c r="CX14" s="100"/>
+      <c r="CY14" s="99"/>
+      <c r="CZ14" s="99"/>
+      <c r="DA14" s="99"/>
+      <c r="DB14" s="99"/>
+      <c r="DC14" s="99"/>
+      <c r="DD14" s="99"/>
+      <c r="DE14" s="99"/>
+      <c r="DF14" s="99"/>
+      <c r="DG14" s="99"/>
+      <c r="DH14" s="99"/>
+      <c r="DI14" s="99"/>
+      <c r="DJ14" s="100"/>
+      <c r="DK14" s="99"/>
+      <c r="DL14" s="99"/>
+      <c r="DM14" s="99"/>
+      <c r="DN14" s="99"/>
+      <c r="DO14" s="99"/>
+      <c r="DP14" s="99"/>
+      <c r="DQ14" s="99"/>
+      <c r="DR14" s="99"/>
+      <c r="DS14" s="99"/>
+      <c r="DT14" s="99"/>
+      <c r="DU14" s="99"/>
+      <c r="DV14" s="100"/>
+      <c r="DW14" s="99"/>
+      <c r="DX14" s="99"/>
+      <c r="DY14" s="99"/>
+      <c r="DZ14" s="99"/>
+      <c r="EA14" s="99"/>
+      <c r="EB14" s="99"/>
+      <c r="EC14" s="99"/>
+      <c r="ED14" s="99"/>
+      <c r="EE14" s="99"/>
+      <c r="EF14" s="99"/>
+      <c r="EG14" s="99"/>
+      <c r="EH14" s="100"/>
+      <c r="EI14" s="130"/>
+      <c r="EJ14" s="131"/>
+      <c r="EK14" s="131"/>
+      <c r="EL14" s="131"/>
+      <c r="EM14" s="131"/>
+      <c r="EN14" s="131"/>
+      <c r="EO14" s="131"/>
+      <c r="EP14" s="131"/>
+      <c r="EQ14" s="131"/>
+      <c r="ER14" s="131"/>
+      <c r="ES14" s="131"/>
+      <c r="ET14" s="132"/>
+      <c r="EU14" s="121"/>
+      <c r="EV14" s="122"/>
+      <c r="EW14" s="122"/>
+      <c r="EX14" s="122"/>
+      <c r="EY14" s="122"/>
+      <c r="EZ14" s="122"/>
+      <c r="FA14" s="122"/>
+      <c r="FB14" s="122"/>
+      <c r="FC14" s="122"/>
+      <c r="FD14" s="122"/>
+      <c r="FE14" s="122"/>
+      <c r="FF14" s="123"/>
     </row>
     <row r="15" spans="1:162" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="147" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="40">
@@ -2690,67 +2898,78 @@
       <c r="AD15" s="45"/>
       <c r="AE15" s="15"/>
       <c r="AP15" s="17"/>
-      <c r="AQ15" s="103"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="104"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="104"/>
-      <c r="AX15" s="104"/>
-      <c r="AY15" s="104"/>
-      <c r="AZ15" s="104"/>
-      <c r="BA15" s="104"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="135"/>
-      <c r="BD15" s="135"/>
-      <c r="BE15" s="135"/>
-      <c r="BF15" s="135"/>
-      <c r="BG15" s="135"/>
-      <c r="BH15" s="135"/>
-      <c r="BI15" s="135"/>
-      <c r="BJ15" s="135"/>
-      <c r="BK15" s="135"/>
-      <c r="BL15" s="135"/>
-      <c r="BM15" s="135"/>
-      <c r="BN15" s="136"/>
-      <c r="BO15" s="46"/>
-      <c r="BP15" s="46"/>
-      <c r="BQ15" s="46"/>
-      <c r="BR15" s="46"/>
-      <c r="BS15" s="46"/>
-      <c r="BT15" s="46"/>
-      <c r="BU15" s="46"/>
-      <c r="BV15" s="46"/>
-      <c r="BW15" s="46"/>
-      <c r="BX15" s="46"/>
-      <c r="BY15" s="46"/>
-      <c r="BZ15" s="47"/>
-      <c r="CA15" s="48"/>
-      <c r="CB15" s="46"/>
-      <c r="CC15" s="46"/>
-      <c r="CD15" s="46"/>
-      <c r="CE15" s="46"/>
-      <c r="CF15" s="46"/>
-      <c r="CG15" s="46"/>
-      <c r="CH15" s="46"/>
-      <c r="CI15" s="46"/>
-      <c r="CJ15" s="46"/>
-      <c r="CK15" s="46"/>
-      <c r="CL15" s="46"/>
-      <c r="CM15" s="15"/>
-      <c r="CY15" s="38"/>
-      <c r="CZ15" s="34"/>
-      <c r="DA15" s="34"/>
-      <c r="DB15" s="34"/>
-      <c r="DC15" s="34"/>
-      <c r="DD15" s="34"/>
-      <c r="DE15" s="34"/>
-      <c r="DF15" s="34"/>
-      <c r="DG15" s="34"/>
-      <c r="DH15" s="34"/>
-      <c r="DI15" s="34"/>
-      <c r="DJ15" s="39"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="122"/>
+      <c r="AS15" s="122"/>
+      <c r="AT15" s="122"/>
+      <c r="AU15" s="122"/>
+      <c r="AV15" s="122"/>
+      <c r="AW15" s="122"/>
+      <c r="AX15" s="122"/>
+      <c r="AY15" s="122"/>
+      <c r="AZ15" s="122"/>
+      <c r="BA15" s="122"/>
+      <c r="BB15" s="123"/>
+      <c r="BC15" s="96"/>
+      <c r="BD15" s="96"/>
+      <c r="BE15" s="96"/>
+      <c r="BF15" s="96"/>
+      <c r="BG15" s="96"/>
+      <c r="BH15" s="96"/>
+      <c r="BI15" s="96"/>
+      <c r="BJ15" s="96"/>
+      <c r="BK15" s="96"/>
+      <c r="BL15" s="96"/>
+      <c r="BM15" s="96"/>
+      <c r="BN15" s="97"/>
+      <c r="BO15" s="142"/>
+      <c r="BP15" s="142"/>
+      <c r="BQ15" s="142"/>
+      <c r="BR15" s="142"/>
+      <c r="BS15" s="142"/>
+      <c r="BT15" s="142"/>
+      <c r="BU15" s="142"/>
+      <c r="BV15" s="142"/>
+      <c r="BW15" s="142"/>
+      <c r="BX15" s="142"/>
+      <c r="BY15" s="142"/>
+      <c r="BZ15" s="143"/>
+      <c r="CA15" s="144"/>
+      <c r="CB15" s="142"/>
+      <c r="CC15" s="142"/>
+      <c r="CD15" s="142"/>
+      <c r="CE15" s="142"/>
+      <c r="CF15" s="142"/>
+      <c r="CG15" s="142"/>
+      <c r="CH15" s="142"/>
+      <c r="CI15" s="142"/>
+      <c r="CJ15" s="142"/>
+      <c r="CK15" s="142"/>
+      <c r="CL15" s="142"/>
+      <c r="CM15" s="144"/>
+      <c r="CN15" s="142"/>
+      <c r="CO15" s="142"/>
+      <c r="CP15" s="142"/>
+      <c r="CQ15" s="142"/>
+      <c r="CR15" s="142"/>
+      <c r="CS15" s="142"/>
+      <c r="CT15" s="142"/>
+      <c r="CU15" s="142"/>
+      <c r="CV15" s="142"/>
+      <c r="CW15" s="142"/>
+      <c r="CX15" s="142"/>
+      <c r="CY15" s="144"/>
+      <c r="CZ15" s="142"/>
+      <c r="DA15" s="142"/>
+      <c r="DB15" s="142"/>
+      <c r="DC15" s="142"/>
+      <c r="DD15" s="142"/>
+      <c r="DE15" s="142"/>
+      <c r="DF15" s="142"/>
+      <c r="DG15" s="142"/>
+      <c r="DH15" s="142"/>
+      <c r="DI15" s="142"/>
+      <c r="DJ15" s="143"/>
       <c r="DK15" s="34"/>
       <c r="DL15" s="34"/>
       <c r="DM15" s="34"/>
@@ -2775,35 +2994,35 @@
       <c r="EF15" s="42"/>
       <c r="EG15" s="42"/>
       <c r="EH15" s="49"/>
-      <c r="EI15" s="112"/>
-      <c r="EJ15" s="113"/>
-      <c r="EK15" s="113"/>
-      <c r="EL15" s="113"/>
-      <c r="EM15" s="113"/>
-      <c r="EN15" s="113"/>
-      <c r="EO15" s="113"/>
-      <c r="EP15" s="113"/>
-      <c r="EQ15" s="113"/>
-      <c r="ER15" s="113"/>
-      <c r="ES15" s="113"/>
-      <c r="ET15" s="114"/>
-      <c r="EU15" s="103"/>
-      <c r="EV15" s="104"/>
-      <c r="EW15" s="104"/>
-      <c r="EX15" s="104"/>
-      <c r="EY15" s="104"/>
-      <c r="EZ15" s="104"/>
-      <c r="FA15" s="104"/>
-      <c r="FB15" s="104"/>
-      <c r="FC15" s="104"/>
-      <c r="FD15" s="104"/>
-      <c r="FE15" s="104"/>
-      <c r="FF15" s="105"/>
+      <c r="EI15" s="130"/>
+      <c r="EJ15" s="131"/>
+      <c r="EK15" s="131"/>
+      <c r="EL15" s="131"/>
+      <c r="EM15" s="131"/>
+      <c r="EN15" s="131"/>
+      <c r="EO15" s="131"/>
+      <c r="EP15" s="131"/>
+      <c r="EQ15" s="131"/>
+      <c r="ER15" s="131"/>
+      <c r="ES15" s="131"/>
+      <c r="ET15" s="132"/>
+      <c r="EU15" s="121"/>
+      <c r="EV15" s="122"/>
+      <c r="EW15" s="122"/>
+      <c r="EX15" s="122"/>
+      <c r="EY15" s="122"/>
+      <c r="EZ15" s="122"/>
+      <c r="FA15" s="122"/>
+      <c r="FB15" s="122"/>
+      <c r="FC15" s="122"/>
+      <c r="FD15" s="122"/>
+      <c r="FE15" s="122"/>
+      <c r="FF15" s="123"/>
     </row>
     <row r="16" spans="1:162" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="147" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="40">
@@ -2839,54 +3058,54 @@
       <c r="AD16" s="49"/>
       <c r="AE16" s="15"/>
       <c r="AP16" s="17"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="104"/>
-      <c r="AY16" s="104"/>
-      <c r="AZ16" s="104"/>
-      <c r="BA16" s="104"/>
-      <c r="BB16" s="105"/>
-      <c r="BC16" s="145"/>
-      <c r="BD16" s="146"/>
-      <c r="BE16" s="146"/>
-      <c r="BF16" s="146"/>
-      <c r="BG16" s="146"/>
-      <c r="BH16" s="146"/>
-      <c r="BI16" s="146"/>
-      <c r="BJ16" s="146"/>
-      <c r="BK16" s="146"/>
-      <c r="BL16" s="146"/>
-      <c r="BM16" s="146"/>
-      <c r="BN16" s="147"/>
-      <c r="BO16" s="48"/>
-      <c r="BP16" s="46"/>
-      <c r="BQ16" s="50"/>
-      <c r="BR16" s="50"/>
-      <c r="BS16" s="46"/>
-      <c r="BT16" s="46"/>
-      <c r="BU16" s="46"/>
-      <c r="BV16" s="46"/>
-      <c r="BW16" s="46"/>
-      <c r="BX16" s="46"/>
-      <c r="BY16" s="46"/>
-      <c r="BZ16" s="46"/>
-      <c r="CA16" s="48"/>
-      <c r="CB16" s="46"/>
-      <c r="CC16" s="46"/>
-      <c r="CD16" s="46"/>
-      <c r="CE16" s="46"/>
-      <c r="CF16" s="46"/>
-      <c r="CG16" s="46"/>
-      <c r="CH16" s="46"/>
-      <c r="CI16" s="46"/>
-      <c r="CJ16" s="46"/>
-      <c r="CK16" s="46"/>
-      <c r="CL16" s="46"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="122"/>
+      <c r="AS16" s="122"/>
+      <c r="AT16" s="122"/>
+      <c r="AU16" s="122"/>
+      <c r="AV16" s="122"/>
+      <c r="AW16" s="122"/>
+      <c r="AX16" s="122"/>
+      <c r="AY16" s="122"/>
+      <c r="AZ16" s="122"/>
+      <c r="BA16" s="122"/>
+      <c r="BB16" s="123"/>
+      <c r="BC16" s="106"/>
+      <c r="BD16" s="107"/>
+      <c r="BE16" s="107"/>
+      <c r="BF16" s="107"/>
+      <c r="BG16" s="107"/>
+      <c r="BH16" s="107"/>
+      <c r="BI16" s="107"/>
+      <c r="BJ16" s="107"/>
+      <c r="BK16" s="107"/>
+      <c r="BL16" s="107"/>
+      <c r="BM16" s="107"/>
+      <c r="BN16" s="108"/>
+      <c r="BO16" s="95"/>
+      <c r="BP16" s="96"/>
+      <c r="BQ16" s="109"/>
+      <c r="BR16" s="109"/>
+      <c r="BS16" s="96"/>
+      <c r="BT16" s="96"/>
+      <c r="BU16" s="96"/>
+      <c r="BV16" s="96"/>
+      <c r="BW16" s="96"/>
+      <c r="BX16" s="96"/>
+      <c r="BY16" s="96"/>
+      <c r="BZ16" s="96"/>
+      <c r="CA16" s="95"/>
+      <c r="CB16" s="96"/>
+      <c r="CC16" s="96"/>
+      <c r="CD16" s="96"/>
+      <c r="CE16" s="96"/>
+      <c r="CF16" s="96"/>
+      <c r="CG16" s="96"/>
+      <c r="CH16" s="96"/>
+      <c r="CI16" s="96"/>
+      <c r="CJ16" s="96"/>
+      <c r="CK16" s="96"/>
+      <c r="CL16" s="96"/>
       <c r="CM16" s="38"/>
       <c r="CN16" s="34"/>
       <c r="CO16" s="34"/>
@@ -2899,71 +3118,71 @@
       <c r="CV16" s="34"/>
       <c r="CW16" s="34"/>
       <c r="CX16" s="34"/>
-      <c r="CY16" s="38"/>
-      <c r="CZ16" s="34"/>
-      <c r="DA16" s="34"/>
-      <c r="DB16" s="34"/>
-      <c r="DC16" s="34"/>
-      <c r="DD16" s="34"/>
-      <c r="DE16" s="34"/>
-      <c r="DF16" s="34"/>
-      <c r="DG16" s="34"/>
-      <c r="DH16" s="34"/>
-      <c r="DI16" s="34"/>
-      <c r="DJ16" s="39"/>
-      <c r="DK16" s="34"/>
-      <c r="DL16" s="34"/>
-      <c r="DM16" s="34"/>
-      <c r="DN16" s="34"/>
-      <c r="DO16" s="34"/>
-      <c r="DP16" s="34"/>
-      <c r="DQ16" s="34"/>
-      <c r="DR16" s="34"/>
-      <c r="DS16" s="34"/>
-      <c r="DT16" s="34"/>
-      <c r="DU16" s="34"/>
-      <c r="DV16" s="39"/>
-      <c r="DW16" s="42"/>
-      <c r="DX16" s="42"/>
-      <c r="DY16" s="42"/>
-      <c r="DZ16" s="42"/>
-      <c r="EA16" s="42"/>
-      <c r="EB16" s="42"/>
-      <c r="EC16" s="42"/>
-      <c r="ED16" s="42"/>
-      <c r="EE16" s="42"/>
-      <c r="EF16" s="42"/>
-      <c r="EG16" s="42"/>
-      <c r="EH16" s="49"/>
-      <c r="EI16" s="112"/>
-      <c r="EJ16" s="113"/>
-      <c r="EK16" s="113"/>
-      <c r="EL16" s="113"/>
-      <c r="EM16" s="113"/>
-      <c r="EN16" s="113"/>
-      <c r="EO16" s="113"/>
-      <c r="EP16" s="113"/>
-      <c r="EQ16" s="113"/>
-      <c r="ER16" s="113"/>
-      <c r="ES16" s="113"/>
-      <c r="ET16" s="114"/>
-      <c r="EU16" s="103"/>
-      <c r="EV16" s="104"/>
-      <c r="EW16" s="104"/>
-      <c r="EX16" s="104"/>
-      <c r="EY16" s="104"/>
-      <c r="EZ16" s="104"/>
-      <c r="FA16" s="104"/>
-      <c r="FB16" s="104"/>
-      <c r="FC16" s="104"/>
-      <c r="FD16" s="104"/>
-      <c r="FE16" s="104"/>
-      <c r="FF16" s="105"/>
+      <c r="CY16" s="144"/>
+      <c r="CZ16" s="142"/>
+      <c r="DA16" s="142"/>
+      <c r="DB16" s="142"/>
+      <c r="DC16" s="142"/>
+      <c r="DD16" s="142"/>
+      <c r="DE16" s="142"/>
+      <c r="DF16" s="142"/>
+      <c r="DG16" s="142"/>
+      <c r="DH16" s="142"/>
+      <c r="DI16" s="142"/>
+      <c r="DJ16" s="143"/>
+      <c r="DK16" s="142"/>
+      <c r="DL16" s="142"/>
+      <c r="DM16" s="142"/>
+      <c r="DN16" s="142"/>
+      <c r="DO16" s="142"/>
+      <c r="DP16" s="142"/>
+      <c r="DQ16" s="142"/>
+      <c r="DR16" s="142"/>
+      <c r="DS16" s="142"/>
+      <c r="DT16" s="142"/>
+      <c r="DU16" s="142"/>
+      <c r="DV16" s="143"/>
+      <c r="DW16" s="145"/>
+      <c r="DX16" s="145"/>
+      <c r="DY16" s="145"/>
+      <c r="DZ16" s="145"/>
+      <c r="EA16" s="145"/>
+      <c r="EB16" s="145"/>
+      <c r="EC16" s="145"/>
+      <c r="ED16" s="145"/>
+      <c r="EE16" s="145"/>
+      <c r="EF16" s="145"/>
+      <c r="EG16" s="145"/>
+      <c r="EH16" s="146"/>
+      <c r="EI16" s="130"/>
+      <c r="EJ16" s="131"/>
+      <c r="EK16" s="131"/>
+      <c r="EL16" s="131"/>
+      <c r="EM16" s="131"/>
+      <c r="EN16" s="131"/>
+      <c r="EO16" s="131"/>
+      <c r="EP16" s="131"/>
+      <c r="EQ16" s="131"/>
+      <c r="ER16" s="131"/>
+      <c r="ES16" s="131"/>
+      <c r="ET16" s="132"/>
+      <c r="EU16" s="121"/>
+      <c r="EV16" s="122"/>
+      <c r="EW16" s="122"/>
+      <c r="EX16" s="122"/>
+      <c r="EY16" s="122"/>
+      <c r="EZ16" s="122"/>
+      <c r="FA16" s="122"/>
+      <c r="FB16" s="122"/>
+      <c r="FC16" s="122"/>
+      <c r="FD16" s="122"/>
+      <c r="FE16" s="122"/>
+      <c r="FF16" s="123"/>
     </row>
     <row r="17" spans="1:162" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="147" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="51">
@@ -2999,18 +3218,18 @@
       <c r="AD17" s="49"/>
       <c r="AE17" s="15"/>
       <c r="AP17" s="17"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="104"/>
-      <c r="AY17" s="104"/>
-      <c r="AZ17" s="104"/>
-      <c r="BA17" s="104"/>
-      <c r="BB17" s="105"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="122"/>
+      <c r="AS17" s="122"/>
+      <c r="AT17" s="122"/>
+      <c r="AU17" s="122"/>
+      <c r="AV17" s="122"/>
+      <c r="AW17" s="122"/>
+      <c r="AX17" s="122"/>
+      <c r="AY17" s="122"/>
+      <c r="AZ17" s="122"/>
+      <c r="BA17" s="122"/>
+      <c r="BB17" s="123"/>
       <c r="BC17" s="52"/>
       <c r="BD17" s="53"/>
       <c r="BE17" s="53"/>
@@ -3023,115 +3242,115 @@
       <c r="BL17" s="53"/>
       <c r="BM17" s="53"/>
       <c r="BN17" s="54"/>
-      <c r="BO17" s="38"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="44"/>
-      <c r="BR17" s="44"/>
-      <c r="BS17" s="34"/>
-      <c r="BT17" s="34"/>
-      <c r="BU17" s="34"/>
-      <c r="BV17" s="34"/>
-      <c r="BW17" s="34"/>
-      <c r="BX17" s="34"/>
-      <c r="BY17" s="34"/>
-      <c r="BZ17" s="34"/>
-      <c r="CA17" s="38"/>
-      <c r="CB17" s="34"/>
-      <c r="CC17" s="34"/>
-      <c r="CD17" s="34"/>
-      <c r="CE17" s="34"/>
-      <c r="CF17" s="34"/>
-      <c r="CG17" s="34"/>
-      <c r="CH17" s="34"/>
-      <c r="CI17" s="34"/>
-      <c r="CJ17" s="34"/>
-      <c r="CK17" s="34"/>
-      <c r="CL17" s="34"/>
-      <c r="CM17" s="48"/>
-      <c r="CN17" s="46"/>
-      <c r="CO17" s="46"/>
-      <c r="CP17" s="46"/>
-      <c r="CQ17" s="46"/>
-      <c r="CR17" s="46"/>
-      <c r="CS17" s="46"/>
-      <c r="CT17" s="46"/>
-      <c r="CU17" s="46"/>
-      <c r="CV17" s="46"/>
-      <c r="CW17" s="46"/>
-      <c r="CX17" s="46"/>
-      <c r="CY17" s="38"/>
-      <c r="CZ17" s="34"/>
-      <c r="DA17" s="34"/>
-      <c r="DB17" s="34"/>
-      <c r="DC17" s="34"/>
-      <c r="DD17" s="34"/>
-      <c r="DE17" s="34"/>
-      <c r="DF17" s="34"/>
-      <c r="DG17" s="34"/>
-      <c r="DH17" s="34"/>
-      <c r="DI17" s="34"/>
-      <c r="DJ17" s="39"/>
-      <c r="DK17" s="34"/>
-      <c r="DL17" s="34"/>
-      <c r="DM17" s="34"/>
-      <c r="DN17" s="34"/>
-      <c r="DO17" s="34"/>
-      <c r="DP17" s="34"/>
-      <c r="DQ17" s="34"/>
-      <c r="DR17" s="34"/>
-      <c r="DS17" s="34"/>
-      <c r="DT17" s="34"/>
-      <c r="DU17" s="34"/>
-      <c r="DV17" s="39"/>
-      <c r="DW17" s="42"/>
-      <c r="DX17" s="42"/>
-      <c r="DY17" s="42"/>
-      <c r="DZ17" s="42"/>
-      <c r="EA17" s="42"/>
-      <c r="EB17" s="42"/>
-      <c r="EC17" s="42"/>
-      <c r="ED17" s="42"/>
-      <c r="EE17" s="42"/>
-      <c r="EF17" s="42"/>
-      <c r="EG17" s="42"/>
-      <c r="EH17" s="49"/>
-      <c r="EI17" s="112"/>
-      <c r="EJ17" s="113"/>
-      <c r="EK17" s="113"/>
-      <c r="EL17" s="113"/>
-      <c r="EM17" s="113"/>
-      <c r="EN17" s="113"/>
-      <c r="EO17" s="113"/>
-      <c r="EP17" s="113"/>
-      <c r="EQ17" s="113"/>
-      <c r="ER17" s="113"/>
-      <c r="ES17" s="113"/>
-      <c r="ET17" s="114"/>
-      <c r="EU17" s="103"/>
-      <c r="EV17" s="104"/>
-      <c r="EW17" s="104"/>
-      <c r="EX17" s="104"/>
-      <c r="EY17" s="104"/>
-      <c r="EZ17" s="104"/>
-      <c r="FA17" s="104"/>
-      <c r="FB17" s="104"/>
-      <c r="FC17" s="104"/>
-      <c r="FD17" s="104"/>
-      <c r="FE17" s="104"/>
-      <c r="FF17" s="105"/>
+      <c r="BO17" s="144"/>
+      <c r="BP17" s="142"/>
+      <c r="BQ17" s="145"/>
+      <c r="BR17" s="145"/>
+      <c r="BS17" s="142"/>
+      <c r="BT17" s="142"/>
+      <c r="BU17" s="142"/>
+      <c r="BV17" s="142"/>
+      <c r="BW17" s="142"/>
+      <c r="BX17" s="142"/>
+      <c r="BY17" s="142"/>
+      <c r="BZ17" s="142"/>
+      <c r="CA17" s="144"/>
+      <c r="CB17" s="142"/>
+      <c r="CC17" s="142"/>
+      <c r="CD17" s="142"/>
+      <c r="CE17" s="142"/>
+      <c r="CF17" s="142"/>
+      <c r="CG17" s="142"/>
+      <c r="CH17" s="142"/>
+      <c r="CI17" s="142"/>
+      <c r="CJ17" s="142"/>
+      <c r="CK17" s="142"/>
+      <c r="CL17" s="142"/>
+      <c r="CM17" s="144"/>
+      <c r="CN17" s="142"/>
+      <c r="CO17" s="142"/>
+      <c r="CP17" s="142"/>
+      <c r="CQ17" s="142"/>
+      <c r="CR17" s="142"/>
+      <c r="CS17" s="142"/>
+      <c r="CT17" s="142"/>
+      <c r="CU17" s="142"/>
+      <c r="CV17" s="142"/>
+      <c r="CW17" s="142"/>
+      <c r="CX17" s="142"/>
+      <c r="CY17" s="144"/>
+      <c r="CZ17" s="142"/>
+      <c r="DA17" s="142"/>
+      <c r="DB17" s="142"/>
+      <c r="DC17" s="142"/>
+      <c r="DD17" s="142"/>
+      <c r="DE17" s="142"/>
+      <c r="DF17" s="142"/>
+      <c r="DG17" s="142"/>
+      <c r="DH17" s="142"/>
+      <c r="DI17" s="142"/>
+      <c r="DJ17" s="143"/>
+      <c r="DK17" s="142"/>
+      <c r="DL17" s="142"/>
+      <c r="DM17" s="142"/>
+      <c r="DN17" s="142"/>
+      <c r="DO17" s="142"/>
+      <c r="DP17" s="142"/>
+      <c r="DQ17" s="142"/>
+      <c r="DR17" s="142"/>
+      <c r="DS17" s="142"/>
+      <c r="DT17" s="142"/>
+      <c r="DU17" s="142"/>
+      <c r="DV17" s="143"/>
+      <c r="DW17" s="145"/>
+      <c r="DX17" s="145"/>
+      <c r="DY17" s="145"/>
+      <c r="DZ17" s="145"/>
+      <c r="EA17" s="145"/>
+      <c r="EB17" s="145"/>
+      <c r="EC17" s="145"/>
+      <c r="ED17" s="145"/>
+      <c r="EE17" s="145"/>
+      <c r="EF17" s="145"/>
+      <c r="EG17" s="145"/>
+      <c r="EH17" s="146"/>
+      <c r="EI17" s="130"/>
+      <c r="EJ17" s="131"/>
+      <c r="EK17" s="131"/>
+      <c r="EL17" s="131"/>
+      <c r="EM17" s="131"/>
+      <c r="EN17" s="131"/>
+      <c r="EO17" s="131"/>
+      <c r="EP17" s="131"/>
+      <c r="EQ17" s="131"/>
+      <c r="ER17" s="131"/>
+      <c r="ES17" s="131"/>
+      <c r="ET17" s="132"/>
+      <c r="EU17" s="121"/>
+      <c r="EV17" s="122"/>
+      <c r="EW17" s="122"/>
+      <c r="EX17" s="122"/>
+      <c r="EY17" s="122"/>
+      <c r="EZ17" s="122"/>
+      <c r="FA17" s="122"/>
+      <c r="FB17" s="122"/>
+      <c r="FC17" s="122"/>
+      <c r="FD17" s="122"/>
+      <c r="FE17" s="122"/>
+      <c r="FF17" s="123"/>
     </row>
     <row r="18" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="154">
         <v>1</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="154" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="34"/>
@@ -3140,96 +3359,137 @@
       <c r="AD18" s="17"/>
       <c r="AE18" s="15"/>
       <c r="AP18" s="17"/>
-      <c r="AQ18" s="103"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="104"/>
-      <c r="AY18" s="104"/>
-      <c r="AZ18" s="104"/>
-      <c r="BA18" s="104"/>
-      <c r="BB18" s="105"/>
-      <c r="BC18" s="135"/>
-      <c r="BD18" s="135"/>
-      <c r="BE18" s="135"/>
-      <c r="BF18" s="135"/>
-      <c r="BG18" s="135"/>
-      <c r="BH18" s="135"/>
-      <c r="BI18" s="135"/>
-      <c r="BJ18" s="135"/>
-      <c r="BK18" s="135"/>
-      <c r="BL18" s="135"/>
-      <c r="BM18" s="135"/>
-      <c r="BN18" s="135"/>
-      <c r="BO18" s="35"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="37"/>
-      <c r="CA18" s="35"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="36"/>
-      <c r="CF18" s="36"/>
-      <c r="CG18" s="36"/>
-      <c r="CH18" s="36"/>
-      <c r="CI18" s="36"/>
-      <c r="CJ18" s="36"/>
-      <c r="CK18" s="36"/>
-      <c r="CL18" s="36"/>
-      <c r="CM18" s="15"/>
-      <c r="CY18" s="15"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="15"/>
-      <c r="DV18" s="17"/>
-      <c r="DW18" s="15"/>
-      <c r="EH18" s="17"/>
-      <c r="EI18" s="112"/>
-      <c r="EJ18" s="113"/>
-      <c r="EK18" s="113"/>
-      <c r="EL18" s="113"/>
-      <c r="EM18" s="113"/>
-      <c r="EN18" s="113"/>
-      <c r="EO18" s="113"/>
-      <c r="EP18" s="113"/>
-      <c r="EQ18" s="113"/>
-      <c r="ER18" s="113"/>
-      <c r="ES18" s="113"/>
-      <c r="ET18" s="114"/>
-      <c r="EU18" s="103"/>
-      <c r="EV18" s="104"/>
-      <c r="EW18" s="104"/>
-      <c r="EX18" s="104"/>
-      <c r="EY18" s="104"/>
-      <c r="EZ18" s="104"/>
-      <c r="FA18" s="104"/>
-      <c r="FB18" s="104"/>
-      <c r="FC18" s="104"/>
-      <c r="FD18" s="104"/>
-      <c r="FE18" s="104"/>
-      <c r="FF18" s="105"/>
+      <c r="AQ18" s="121"/>
+      <c r="AR18" s="122"/>
+      <c r="AS18" s="122"/>
+      <c r="AT18" s="122"/>
+      <c r="AU18" s="122"/>
+      <c r="AV18" s="122"/>
+      <c r="AW18" s="122"/>
+      <c r="AX18" s="122"/>
+      <c r="AY18" s="122"/>
+      <c r="AZ18" s="122"/>
+      <c r="BA18" s="122"/>
+      <c r="BB18" s="123"/>
+      <c r="BC18" s="96"/>
+      <c r="BD18" s="96"/>
+      <c r="BE18" s="96"/>
+      <c r="BF18" s="96"/>
+      <c r="BG18" s="96"/>
+      <c r="BH18" s="96"/>
+      <c r="BI18" s="96"/>
+      <c r="BJ18" s="96"/>
+      <c r="BK18" s="96"/>
+      <c r="BL18" s="96"/>
+      <c r="BM18" s="96"/>
+      <c r="BN18" s="96"/>
+      <c r="BO18" s="38"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="34"/>
+      <c r="BS18" s="34"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="34"/>
+      <c r="BV18" s="34"/>
+      <c r="BW18" s="34"/>
+      <c r="BX18" s="34"/>
+      <c r="BY18" s="34"/>
+      <c r="BZ18" s="39"/>
+      <c r="CA18" s="38"/>
+      <c r="CB18" s="34"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="34"/>
+      <c r="CE18" s="34"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="34"/>
+      <c r="CK18" s="34"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="98"/>
+      <c r="CN18" s="99"/>
+      <c r="CO18" s="99"/>
+      <c r="CP18" s="99"/>
+      <c r="CQ18" s="99"/>
+      <c r="CR18" s="99"/>
+      <c r="CS18" s="99"/>
+      <c r="CT18" s="99"/>
+      <c r="CU18" s="99"/>
+      <c r="CV18" s="99"/>
+      <c r="CW18" s="99"/>
+      <c r="CX18" s="99"/>
+      <c r="CY18" s="98"/>
+      <c r="CZ18" s="99"/>
+      <c r="DA18" s="99"/>
+      <c r="DB18" s="99"/>
+      <c r="DC18" s="99"/>
+      <c r="DD18" s="99"/>
+      <c r="DE18" s="99"/>
+      <c r="DF18" s="99"/>
+      <c r="DG18" s="99"/>
+      <c r="DH18" s="99"/>
+      <c r="DI18" s="99"/>
+      <c r="DJ18" s="100"/>
+      <c r="DK18" s="98"/>
+      <c r="DL18" s="99"/>
+      <c r="DM18" s="99"/>
+      <c r="DN18" s="99"/>
+      <c r="DO18" s="99"/>
+      <c r="DP18" s="99"/>
+      <c r="DQ18" s="99"/>
+      <c r="DR18" s="99"/>
+      <c r="DS18" s="99"/>
+      <c r="DT18" s="99"/>
+      <c r="DU18" s="99"/>
+      <c r="DV18" s="100"/>
+      <c r="DW18" s="98"/>
+      <c r="DX18" s="99"/>
+      <c r="DY18" s="99"/>
+      <c r="DZ18" s="99"/>
+      <c r="EA18" s="99"/>
+      <c r="EB18" s="99"/>
+      <c r="EC18" s="99"/>
+      <c r="ED18" s="99"/>
+      <c r="EE18" s="99"/>
+      <c r="EF18" s="99"/>
+      <c r="EG18" s="99"/>
+      <c r="EH18" s="100"/>
+      <c r="EI18" s="130"/>
+      <c r="EJ18" s="131"/>
+      <c r="EK18" s="131"/>
+      <c r="EL18" s="131"/>
+      <c r="EM18" s="131"/>
+      <c r="EN18" s="131"/>
+      <c r="EO18" s="131"/>
+      <c r="EP18" s="131"/>
+      <c r="EQ18" s="131"/>
+      <c r="ER18" s="131"/>
+      <c r="ES18" s="131"/>
+      <c r="ET18" s="132"/>
+      <c r="EU18" s="121"/>
+      <c r="EV18" s="122"/>
+      <c r="EW18" s="122"/>
+      <c r="EX18" s="122"/>
+      <c r="EY18" s="122"/>
+      <c r="EZ18" s="122"/>
+      <c r="FA18" s="122"/>
+      <c r="FB18" s="122"/>
+      <c r="FC18" s="122"/>
+      <c r="FD18" s="122"/>
+      <c r="FE18" s="122"/>
+      <c r="FF18" s="123"/>
     </row>
     <row r="19" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="147">
         <v>1</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="147" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="34"/>
@@ -3269,110 +3529,130 @@
       <c r="AN19" s="42"/>
       <c r="AO19" s="42"/>
       <c r="AP19" s="49"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="104"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="104"/>
-      <c r="AY19" s="104"/>
-      <c r="AZ19" s="104"/>
-      <c r="BA19" s="104"/>
-      <c r="BB19" s="105"/>
-      <c r="BC19" s="148"/>
-      <c r="BD19" s="148"/>
-      <c r="BE19" s="148"/>
-      <c r="BF19" s="148"/>
-      <c r="BG19" s="148"/>
-      <c r="BH19" s="148"/>
-      <c r="BI19" s="148"/>
-      <c r="BJ19" s="148"/>
-      <c r="BK19" s="148"/>
-      <c r="BL19" s="148"/>
-      <c r="BM19" s="148"/>
-      <c r="BN19" s="148"/>
-      <c r="BO19" s="56"/>
-      <c r="BP19" s="50"/>
-      <c r="BQ19" s="50"/>
-      <c r="BR19" s="50"/>
-      <c r="BS19" s="50"/>
-      <c r="BT19" s="50"/>
-      <c r="BU19" s="50"/>
-      <c r="BV19" s="50"/>
-      <c r="BW19" s="50"/>
-      <c r="BX19" s="50"/>
-      <c r="BY19" s="50"/>
-      <c r="BZ19" s="57"/>
-      <c r="CA19" s="56"/>
-      <c r="CB19" s="50"/>
-      <c r="CC19" s="50"/>
-      <c r="CD19" s="50"/>
-      <c r="CE19" s="50"/>
-      <c r="CF19" s="50"/>
-      <c r="CG19" s="50"/>
-      <c r="CH19" s="50"/>
-      <c r="CI19" s="50"/>
-      <c r="CJ19" s="50"/>
-      <c r="CK19" s="50"/>
-      <c r="CL19" s="57"/>
-      <c r="CM19" s="42"/>
-      <c r="CN19" s="42"/>
-      <c r="CO19" s="42"/>
-      <c r="CP19" s="42"/>
-      <c r="CQ19" s="42"/>
-      <c r="CR19" s="42"/>
-      <c r="CS19" s="42"/>
-      <c r="CT19" s="42"/>
-      <c r="CU19" s="42"/>
-      <c r="CV19" s="42"/>
-      <c r="CW19" s="42"/>
-      <c r="CX19" s="49"/>
-      <c r="CY19" s="15"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="15"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="42"/>
-      <c r="DX19" s="42"/>
-      <c r="DY19" s="42"/>
-      <c r="DZ19" s="42"/>
-      <c r="EA19" s="42"/>
-      <c r="EB19" s="42"/>
-      <c r="EC19" s="42"/>
-      <c r="ED19" s="42"/>
-      <c r="EE19" s="42"/>
-      <c r="EF19" s="42"/>
-      <c r="EG19" s="42"/>
-      <c r="EH19" s="49"/>
-      <c r="EI19" s="112"/>
-      <c r="EJ19" s="113"/>
-      <c r="EK19" s="113"/>
-      <c r="EL19" s="113"/>
-      <c r="EM19" s="113"/>
-      <c r="EN19" s="113"/>
-      <c r="EO19" s="113"/>
-      <c r="EP19" s="113"/>
-      <c r="EQ19" s="113"/>
-      <c r="ER19" s="113"/>
-      <c r="ES19" s="113"/>
-      <c r="ET19" s="114"/>
-      <c r="EU19" s="103"/>
-      <c r="EV19" s="104"/>
-      <c r="EW19" s="104"/>
-      <c r="EX19" s="104"/>
-      <c r="EY19" s="104"/>
-      <c r="EZ19" s="104"/>
-      <c r="FA19" s="104"/>
-      <c r="FB19" s="104"/>
-      <c r="FC19" s="104"/>
-      <c r="FD19" s="104"/>
-      <c r="FE19" s="104"/>
-      <c r="FF19" s="105"/>
+      <c r="AQ19" s="121"/>
+      <c r="AR19" s="122"/>
+      <c r="AS19" s="122"/>
+      <c r="AT19" s="122"/>
+      <c r="AU19" s="122"/>
+      <c r="AV19" s="122"/>
+      <c r="AW19" s="122"/>
+      <c r="AX19" s="122"/>
+      <c r="AY19" s="122"/>
+      <c r="AZ19" s="122"/>
+      <c r="BA19" s="122"/>
+      <c r="BB19" s="123"/>
+      <c r="BC19" s="109"/>
+      <c r="BD19" s="109"/>
+      <c r="BE19" s="109"/>
+      <c r="BF19" s="109"/>
+      <c r="BG19" s="109"/>
+      <c r="BH19" s="109"/>
+      <c r="BI19" s="109"/>
+      <c r="BJ19" s="109"/>
+      <c r="BK19" s="109"/>
+      <c r="BL19" s="109"/>
+      <c r="BM19" s="109"/>
+      <c r="BN19" s="109"/>
+      <c r="BO19" s="43"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="44"/>
+      <c r="BR19" s="44"/>
+      <c r="BS19" s="44"/>
+      <c r="BT19" s="44"/>
+      <c r="BU19" s="44"/>
+      <c r="BV19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="45"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
+      <c r="CG19" s="44"/>
+      <c r="CH19" s="44"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="44"/>
+      <c r="CK19" s="44"/>
+      <c r="CL19" s="45"/>
+      <c r="CM19" s="145"/>
+      <c r="CN19" s="145"/>
+      <c r="CO19" s="145"/>
+      <c r="CP19" s="145"/>
+      <c r="CQ19" s="145"/>
+      <c r="CR19" s="145"/>
+      <c r="CS19" s="145"/>
+      <c r="CT19" s="145"/>
+      <c r="CU19" s="145"/>
+      <c r="CV19" s="145"/>
+      <c r="CW19" s="145"/>
+      <c r="CX19" s="146"/>
+      <c r="CY19" s="144"/>
+      <c r="CZ19" s="142"/>
+      <c r="DA19" s="142"/>
+      <c r="DB19" s="142"/>
+      <c r="DC19" s="142"/>
+      <c r="DD19" s="142"/>
+      <c r="DE19" s="142"/>
+      <c r="DF19" s="142"/>
+      <c r="DG19" s="142"/>
+      <c r="DH19" s="142"/>
+      <c r="DI19" s="142"/>
+      <c r="DJ19" s="143"/>
+      <c r="DK19" s="144"/>
+      <c r="DL19" s="142"/>
+      <c r="DM19" s="142"/>
+      <c r="DN19" s="142"/>
+      <c r="DO19" s="142"/>
+      <c r="DP19" s="142"/>
+      <c r="DQ19" s="142"/>
+      <c r="DR19" s="142"/>
+      <c r="DS19" s="142"/>
+      <c r="DT19" s="142"/>
+      <c r="DU19" s="142"/>
+      <c r="DV19" s="143"/>
+      <c r="DW19" s="145"/>
+      <c r="DX19" s="145"/>
+      <c r="DY19" s="145"/>
+      <c r="DZ19" s="145"/>
+      <c r="EA19" s="145"/>
+      <c r="EB19" s="145"/>
+      <c r="EC19" s="145"/>
+      <c r="ED19" s="145"/>
+      <c r="EE19" s="145"/>
+      <c r="EF19" s="145"/>
+      <c r="EG19" s="145"/>
+      <c r="EH19" s="146"/>
+      <c r="EI19" s="130"/>
+      <c r="EJ19" s="131"/>
+      <c r="EK19" s="131"/>
+      <c r="EL19" s="131"/>
+      <c r="EM19" s="131"/>
+      <c r="EN19" s="131"/>
+      <c r="EO19" s="131"/>
+      <c r="EP19" s="131"/>
+      <c r="EQ19" s="131"/>
+      <c r="ER19" s="131"/>
+      <c r="ES19" s="131"/>
+      <c r="ET19" s="132"/>
+      <c r="EU19" s="121"/>
+      <c r="EV19" s="122"/>
+      <c r="EW19" s="122"/>
+      <c r="EX19" s="122"/>
+      <c r="EY19" s="122"/>
+      <c r="EZ19" s="122"/>
+      <c r="FA19" s="122"/>
+      <c r="FB19" s="122"/>
+      <c r="FC19" s="122"/>
+      <c r="FD19" s="122"/>
+      <c r="FE19" s="122"/>
+      <c r="FF19" s="123"/>
     </row>
     <row r="20" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -3421,130 +3701,130 @@
       <c r="AN20" s="42"/>
       <c r="AO20" s="42"/>
       <c r="AP20" s="49"/>
-      <c r="AQ20" s="103"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="104"/>
-      <c r="AY20" s="104"/>
-      <c r="AZ20" s="104"/>
-      <c r="BA20" s="104"/>
-      <c r="BB20" s="105"/>
-      <c r="BC20" s="148"/>
-      <c r="BD20" s="148"/>
-      <c r="BE20" s="148"/>
-      <c r="BF20" s="148"/>
-      <c r="BG20" s="148"/>
-      <c r="BH20" s="148"/>
-      <c r="BI20" s="148"/>
-      <c r="BJ20" s="148"/>
-      <c r="BK20" s="148"/>
-      <c r="BL20" s="148"/>
-      <c r="BM20" s="148"/>
-      <c r="BN20" s="148"/>
-      <c r="BO20" s="59"/>
-      <c r="BP20" s="58"/>
-      <c r="BQ20" s="58"/>
-      <c r="BR20" s="58"/>
-      <c r="BS20" s="58"/>
-      <c r="BT20" s="58"/>
-      <c r="BU20" s="58"/>
-      <c r="BV20" s="58"/>
-      <c r="BW20" s="58"/>
-      <c r="BX20" s="58"/>
-      <c r="BY20" s="58"/>
-      <c r="BZ20" s="60"/>
-      <c r="CA20" s="59"/>
-      <c r="CB20" s="58"/>
-      <c r="CC20" s="58"/>
-      <c r="CD20" s="58"/>
-      <c r="CE20" s="58"/>
-      <c r="CF20" s="58"/>
-      <c r="CG20" s="58"/>
-      <c r="CH20" s="58"/>
-      <c r="CI20" s="58"/>
-      <c r="CJ20" s="58"/>
-      <c r="CK20" s="58"/>
-      <c r="CL20" s="60"/>
-      <c r="CM20" s="58"/>
-      <c r="CN20" s="58"/>
-      <c r="CO20" s="58"/>
-      <c r="CP20" s="58"/>
-      <c r="CQ20" s="58"/>
-      <c r="CR20" s="58"/>
-      <c r="CS20" s="58"/>
-      <c r="CT20" s="58"/>
-      <c r="CU20" s="58"/>
-      <c r="CV20" s="58"/>
-      <c r="CW20" s="58"/>
-      <c r="CX20" s="60"/>
-      <c r="CY20" s="61"/>
-      <c r="CZ20" s="62"/>
-      <c r="DA20" s="62"/>
-      <c r="DB20" s="62"/>
-      <c r="DC20" s="62"/>
-      <c r="DD20" s="62"/>
-      <c r="DE20" s="62"/>
-      <c r="DF20" s="62"/>
-      <c r="DG20" s="62"/>
-      <c r="DH20" s="62"/>
-      <c r="DI20" s="62"/>
-      <c r="DJ20" s="63"/>
-      <c r="DK20" s="44"/>
-      <c r="DL20" s="44"/>
-      <c r="DM20" s="44"/>
-      <c r="DN20" s="44"/>
-      <c r="DO20" s="44"/>
-      <c r="DP20" s="44"/>
-      <c r="DQ20" s="44"/>
-      <c r="DR20" s="44"/>
-      <c r="DS20" s="44"/>
-      <c r="DT20" s="44"/>
-      <c r="DU20" s="44"/>
-      <c r="DV20" s="45"/>
-      <c r="DW20" s="42"/>
-      <c r="DX20" s="42"/>
-      <c r="DY20" s="42"/>
-      <c r="DZ20" s="42"/>
-      <c r="EA20" s="42"/>
-      <c r="EB20" s="42"/>
-      <c r="EC20" s="42"/>
-      <c r="ED20" s="42"/>
-      <c r="EE20" s="42"/>
-      <c r="EF20" s="42"/>
-      <c r="EG20" s="42"/>
-      <c r="EH20" s="49"/>
-      <c r="EI20" s="112"/>
-      <c r="EJ20" s="113"/>
-      <c r="EK20" s="113"/>
-      <c r="EL20" s="113"/>
-      <c r="EM20" s="113"/>
-      <c r="EN20" s="113"/>
-      <c r="EO20" s="113"/>
-      <c r="EP20" s="113"/>
-      <c r="EQ20" s="113"/>
-      <c r="ER20" s="113"/>
-      <c r="ES20" s="113"/>
-      <c r="ET20" s="114"/>
-      <c r="EU20" s="103"/>
-      <c r="EV20" s="104"/>
-      <c r="EW20" s="104"/>
-      <c r="EX20" s="104"/>
-      <c r="EY20" s="104"/>
-      <c r="EZ20" s="104"/>
-      <c r="FA20" s="104"/>
-      <c r="FB20" s="104"/>
-      <c r="FC20" s="104"/>
-      <c r="FD20" s="104"/>
-      <c r="FE20" s="104"/>
-      <c r="FF20" s="105"/>
+      <c r="AQ20" s="121"/>
+      <c r="AR20" s="122"/>
+      <c r="AS20" s="122"/>
+      <c r="AT20" s="122"/>
+      <c r="AU20" s="122"/>
+      <c r="AV20" s="122"/>
+      <c r="AW20" s="122"/>
+      <c r="AX20" s="122"/>
+      <c r="AY20" s="122"/>
+      <c r="AZ20" s="122"/>
+      <c r="BA20" s="122"/>
+      <c r="BB20" s="123"/>
+      <c r="BC20" s="109"/>
+      <c r="BD20" s="109"/>
+      <c r="BE20" s="109"/>
+      <c r="BF20" s="109"/>
+      <c r="BG20" s="109"/>
+      <c r="BH20" s="109"/>
+      <c r="BI20" s="109"/>
+      <c r="BJ20" s="109"/>
+      <c r="BK20" s="109"/>
+      <c r="BL20" s="109"/>
+      <c r="BM20" s="109"/>
+      <c r="BN20" s="109"/>
+      <c r="BO20" s="155"/>
+      <c r="BP20" s="151"/>
+      <c r="BQ20" s="151"/>
+      <c r="BR20" s="151"/>
+      <c r="BS20" s="151"/>
+      <c r="BT20" s="151"/>
+      <c r="BU20" s="151"/>
+      <c r="BV20" s="151"/>
+      <c r="BW20" s="151"/>
+      <c r="BX20" s="151"/>
+      <c r="BY20" s="151"/>
+      <c r="BZ20" s="152"/>
+      <c r="CA20" s="155"/>
+      <c r="CB20" s="151"/>
+      <c r="CC20" s="151"/>
+      <c r="CD20" s="151"/>
+      <c r="CE20" s="151"/>
+      <c r="CF20" s="151"/>
+      <c r="CG20" s="151"/>
+      <c r="CH20" s="151"/>
+      <c r="CI20" s="151"/>
+      <c r="CJ20" s="151"/>
+      <c r="CK20" s="151"/>
+      <c r="CL20" s="152"/>
+      <c r="CM20" s="151"/>
+      <c r="CN20" s="151"/>
+      <c r="CO20" s="151"/>
+      <c r="CP20" s="151"/>
+      <c r="CQ20" s="151"/>
+      <c r="CR20" s="151"/>
+      <c r="CS20" s="151"/>
+      <c r="CT20" s="151"/>
+      <c r="CU20" s="151"/>
+      <c r="CV20" s="151"/>
+      <c r="CW20" s="151"/>
+      <c r="CX20" s="152"/>
+      <c r="CY20" s="156"/>
+      <c r="CZ20" s="157"/>
+      <c r="DA20" s="157"/>
+      <c r="DB20" s="157"/>
+      <c r="DC20" s="157"/>
+      <c r="DD20" s="157"/>
+      <c r="DE20" s="157"/>
+      <c r="DF20" s="157"/>
+      <c r="DG20" s="157"/>
+      <c r="DH20" s="157"/>
+      <c r="DI20" s="157"/>
+      <c r="DJ20" s="158"/>
+      <c r="DK20" s="151"/>
+      <c r="DL20" s="151"/>
+      <c r="DM20" s="151"/>
+      <c r="DN20" s="151"/>
+      <c r="DO20" s="151"/>
+      <c r="DP20" s="151"/>
+      <c r="DQ20" s="151"/>
+      <c r="DR20" s="151"/>
+      <c r="DS20" s="151"/>
+      <c r="DT20" s="151"/>
+      <c r="DU20" s="151"/>
+      <c r="DV20" s="152"/>
+      <c r="DW20" s="151"/>
+      <c r="DX20" s="151"/>
+      <c r="DY20" s="151"/>
+      <c r="DZ20" s="151"/>
+      <c r="EA20" s="151"/>
+      <c r="EB20" s="151"/>
+      <c r="EC20" s="151"/>
+      <c r="ED20" s="151"/>
+      <c r="EE20" s="151"/>
+      <c r="EF20" s="151"/>
+      <c r="EG20" s="151"/>
+      <c r="EH20" s="152"/>
+      <c r="EI20" s="130"/>
+      <c r="EJ20" s="131"/>
+      <c r="EK20" s="131"/>
+      <c r="EL20" s="131"/>
+      <c r="EM20" s="131"/>
+      <c r="EN20" s="131"/>
+      <c r="EO20" s="131"/>
+      <c r="EP20" s="131"/>
+      <c r="EQ20" s="131"/>
+      <c r="ER20" s="131"/>
+      <c r="ES20" s="131"/>
+      <c r="ET20" s="132"/>
+      <c r="EU20" s="121"/>
+      <c r="EV20" s="122"/>
+      <c r="EW20" s="122"/>
+      <c r="EX20" s="122"/>
+      <c r="EY20" s="122"/>
+      <c r="EZ20" s="122"/>
+      <c r="FA20" s="122"/>
+      <c r="FB20" s="122"/>
+      <c r="FC20" s="122"/>
+      <c r="FD20" s="122"/>
+      <c r="FE20" s="122"/>
+      <c r="FF20" s="123"/>
     </row>
     <row r="21" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="40" t="s">
         <v>65</v>
       </c>
@@ -3591,31 +3871,31 @@
       <c r="AN21" s="42"/>
       <c r="AO21" s="42"/>
       <c r="AP21" s="49"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="104"/>
-      <c r="AY21" s="104"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="104"/>
-      <c r="BB21" s="105"/>
-      <c r="BC21" s="148"/>
-      <c r="BD21" s="148"/>
-      <c r="BE21" s="148"/>
-      <c r="BF21" s="148"/>
-      <c r="BG21" s="148"/>
-      <c r="BH21" s="148"/>
-      <c r="BI21" s="148"/>
-      <c r="BJ21" s="148"/>
-      <c r="BK21" s="148"/>
-      <c r="BL21" s="148"/>
-      <c r="BM21" s="148"/>
-      <c r="BN21" s="148"/>
-      <c r="BO21" s="56"/>
+      <c r="AQ21" s="121"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="122"/>
+      <c r="AU21" s="122"/>
+      <c r="AV21" s="122"/>
+      <c r="AW21" s="122"/>
+      <c r="AX21" s="122"/>
+      <c r="AY21" s="122"/>
+      <c r="AZ21" s="122"/>
+      <c r="BA21" s="122"/>
+      <c r="BB21" s="123"/>
+      <c r="BC21" s="109"/>
+      <c r="BD21" s="109"/>
+      <c r="BE21" s="109"/>
+      <c r="BF21" s="109"/>
+      <c r="BG21" s="109"/>
+      <c r="BH21" s="109"/>
+      <c r="BI21" s="109"/>
+      <c r="BJ21" s="109"/>
+      <c r="BK21" s="109"/>
+      <c r="BL21" s="109"/>
+      <c r="BM21" s="109"/>
+      <c r="BN21" s="109"/>
+      <c r="BO21" s="55"/>
       <c r="BP21" s="50"/>
       <c r="BQ21" s="50"/>
       <c r="BR21" s="50"/>
@@ -3626,7 +3906,7 @@
       <c r="BW21" s="50"/>
       <c r="BX21" s="50"/>
       <c r="BY21" s="50"/>
-      <c r="BZ21" s="57"/>
+      <c r="BZ21" s="56"/>
       <c r="CA21" s="41"/>
       <c r="CB21" s="42"/>
       <c r="CC21" s="42"/>
@@ -3651,18 +3931,18 @@
       <c r="CV21" s="42"/>
       <c r="CW21" s="42"/>
       <c r="CX21" s="49"/>
-      <c r="CY21" s="64"/>
-      <c r="CZ21" s="65"/>
-      <c r="DA21" s="65"/>
-      <c r="DB21" s="65"/>
-      <c r="DC21" s="65"/>
-      <c r="DD21" s="65"/>
-      <c r="DE21" s="65"/>
-      <c r="DF21" s="65"/>
-      <c r="DG21" s="65"/>
-      <c r="DH21" s="65"/>
-      <c r="DI21" s="65"/>
-      <c r="DJ21" s="66"/>
+      <c r="CY21" s="57"/>
+      <c r="CZ21" s="58"/>
+      <c r="DA21" s="58"/>
+      <c r="DB21" s="58"/>
+      <c r="DC21" s="58"/>
+      <c r="DD21" s="58"/>
+      <c r="DE21" s="58"/>
+      <c r="DF21" s="58"/>
+      <c r="DG21" s="58"/>
+      <c r="DH21" s="58"/>
+      <c r="DI21" s="58"/>
+      <c r="DJ21" s="59"/>
       <c r="DK21" s="42"/>
       <c r="DL21" s="42"/>
       <c r="DM21" s="42"/>
@@ -3687,34 +3967,34 @@
       <c r="EF21" s="42"/>
       <c r="EG21" s="42"/>
       <c r="EH21" s="49"/>
-      <c r="EI21" s="112"/>
-      <c r="EJ21" s="113"/>
-      <c r="EK21" s="113"/>
-      <c r="EL21" s="113"/>
-      <c r="EM21" s="113"/>
-      <c r="EN21" s="113"/>
-      <c r="EO21" s="113"/>
-      <c r="EP21" s="113"/>
-      <c r="EQ21" s="113"/>
-      <c r="ER21" s="113"/>
-      <c r="ES21" s="113"/>
-      <c r="ET21" s="114"/>
-      <c r="EU21" s="103"/>
-      <c r="EV21" s="104"/>
-      <c r="EW21" s="104"/>
-      <c r="EX21" s="104"/>
-      <c r="EY21" s="104"/>
-      <c r="EZ21" s="104"/>
-      <c r="FA21" s="104"/>
-      <c r="FB21" s="104"/>
-      <c r="FC21" s="104"/>
-      <c r="FD21" s="104"/>
-      <c r="FE21" s="104"/>
-      <c r="FF21" s="105"/>
+      <c r="EI21" s="130"/>
+      <c r="EJ21" s="131"/>
+      <c r="EK21" s="131"/>
+      <c r="EL21" s="131"/>
+      <c r="EM21" s="131"/>
+      <c r="EN21" s="131"/>
+      <c r="EO21" s="131"/>
+      <c r="EP21" s="131"/>
+      <c r="EQ21" s="131"/>
+      <c r="ER21" s="131"/>
+      <c r="ES21" s="131"/>
+      <c r="ET21" s="132"/>
+      <c r="EU21" s="121"/>
+      <c r="EV21" s="122"/>
+      <c r="EW21" s="122"/>
+      <c r="EX21" s="122"/>
+      <c r="EY21" s="122"/>
+      <c r="EZ21" s="122"/>
+      <c r="FA21" s="122"/>
+      <c r="FB21" s="122"/>
+      <c r="FC21" s="122"/>
+      <c r="FD21" s="122"/>
+      <c r="FE21" s="122"/>
+      <c r="FF21" s="123"/>
     </row>
     <row r="22" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="40" t="s">
         <v>26</v>
       </c>
@@ -3730,18 +4010,18 @@
       <c r="AD22" s="17"/>
       <c r="AE22" s="15"/>
       <c r="AP22" s="17"/>
-      <c r="AQ22" s="103"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="104"/>
-      <c r="AW22" s="104"/>
-      <c r="AX22" s="104"/>
-      <c r="AY22" s="104"/>
-      <c r="AZ22" s="104"/>
-      <c r="BA22" s="104"/>
-      <c r="BB22" s="105"/>
+      <c r="AQ22" s="121"/>
+      <c r="AR22" s="122"/>
+      <c r="AS22" s="122"/>
+      <c r="AT22" s="122"/>
+      <c r="AU22" s="122"/>
+      <c r="AV22" s="122"/>
+      <c r="AW22" s="122"/>
+      <c r="AX22" s="122"/>
+      <c r="AY22" s="122"/>
+      <c r="AZ22" s="122"/>
+      <c r="BA22" s="122"/>
+      <c r="BB22" s="123"/>
       <c r="BO22" s="15"/>
       <c r="BZ22" s="17"/>
       <c r="CA22" s="48"/>
@@ -3791,41 +4071,41 @@
       <c r="DS22" s="42"/>
       <c r="DV22" s="17"/>
       <c r="EH22" s="17"/>
-      <c r="EI22" s="112"/>
-      <c r="EJ22" s="113"/>
-      <c r="EK22" s="113"/>
-      <c r="EL22" s="113"/>
-      <c r="EM22" s="113"/>
-      <c r="EN22" s="113"/>
-      <c r="EO22" s="113"/>
-      <c r="EP22" s="113"/>
-      <c r="EQ22" s="113"/>
-      <c r="ER22" s="113"/>
-      <c r="ES22" s="113"/>
-      <c r="ET22" s="114"/>
-      <c r="EU22" s="103"/>
-      <c r="EV22" s="104"/>
-      <c r="EW22" s="104"/>
-      <c r="EX22" s="104"/>
-      <c r="EY22" s="104"/>
-      <c r="EZ22" s="104"/>
-      <c r="FA22" s="104"/>
-      <c r="FB22" s="104"/>
-      <c r="FC22" s="104"/>
-      <c r="FD22" s="104"/>
-      <c r="FE22" s="104"/>
-      <c r="FF22" s="105"/>
+      <c r="EI22" s="130"/>
+      <c r="EJ22" s="131"/>
+      <c r="EK22" s="131"/>
+      <c r="EL22" s="131"/>
+      <c r="EM22" s="131"/>
+      <c r="EN22" s="131"/>
+      <c r="EO22" s="131"/>
+      <c r="EP22" s="131"/>
+      <c r="EQ22" s="131"/>
+      <c r="ER22" s="131"/>
+      <c r="ES22" s="131"/>
+      <c r="ET22" s="132"/>
+      <c r="EU22" s="121"/>
+      <c r="EV22" s="122"/>
+      <c r="EW22" s="122"/>
+      <c r="EX22" s="122"/>
+      <c r="EY22" s="122"/>
+      <c r="EZ22" s="122"/>
+      <c r="FA22" s="122"/>
+      <c r="FB22" s="122"/>
+      <c r="FC22" s="122"/>
+      <c r="FD22" s="122"/>
+      <c r="FE22" s="122"/>
+      <c r="FF22" s="123"/>
     </row>
     <row r="23" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="91">
         <v>1</v>
       </c>
-      <c r="E23" s="99" t="s">
+      <c r="E23" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="34"/>
@@ -3865,18 +4145,18 @@
       <c r="AN23" s="42"/>
       <c r="AO23" s="42"/>
       <c r="AP23" s="49"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
-      <c r="AX23" s="104"/>
-      <c r="AY23" s="104"/>
-      <c r="AZ23" s="104"/>
-      <c r="BA23" s="104"/>
-      <c r="BB23" s="105"/>
+      <c r="AQ23" s="121"/>
+      <c r="AR23" s="122"/>
+      <c r="AS23" s="122"/>
+      <c r="AT23" s="122"/>
+      <c r="AU23" s="122"/>
+      <c r="AV23" s="122"/>
+      <c r="AW23" s="122"/>
+      <c r="AX23" s="122"/>
+      <c r="AY23" s="122"/>
+      <c r="AZ23" s="122"/>
+      <c r="BA23" s="122"/>
+      <c r="BB23" s="123"/>
       <c r="BC23" s="42"/>
       <c r="BD23" s="42"/>
       <c r="BE23" s="42"/>
@@ -3901,18 +4181,18 @@
       <c r="BX23" s="42"/>
       <c r="BY23" s="42"/>
       <c r="BZ23" s="49"/>
-      <c r="CA23" s="67"/>
-      <c r="CB23" s="68"/>
-      <c r="CC23" s="68"/>
-      <c r="CD23" s="68"/>
-      <c r="CE23" s="68"/>
-      <c r="CF23" s="68"/>
-      <c r="CG23" s="68"/>
-      <c r="CH23" s="68"/>
-      <c r="CI23" s="68"/>
-      <c r="CJ23" s="68"/>
-      <c r="CK23" s="68"/>
-      <c r="CL23" s="69"/>
+      <c r="CA23" s="60"/>
+      <c r="CB23" s="61"/>
+      <c r="CC23" s="61"/>
+      <c r="CD23" s="61"/>
+      <c r="CE23" s="61"/>
+      <c r="CF23" s="61"/>
+      <c r="CG23" s="61"/>
+      <c r="CH23" s="61"/>
+      <c r="CI23" s="61"/>
+      <c r="CJ23" s="61"/>
+      <c r="CK23" s="61"/>
+      <c r="CL23" s="62"/>
       <c r="CM23" s="42"/>
       <c r="CN23" s="42"/>
       <c r="CO23" s="42"/>
@@ -3939,41 +4219,41 @@
       <c r="DJ23" s="49"/>
       <c r="DV23" s="17"/>
       <c r="EH23" s="17"/>
-      <c r="EI23" s="112"/>
-      <c r="EJ23" s="113"/>
-      <c r="EK23" s="113"/>
-      <c r="EL23" s="113"/>
-      <c r="EM23" s="113"/>
-      <c r="EN23" s="113"/>
-      <c r="EO23" s="113"/>
-      <c r="EP23" s="113"/>
-      <c r="EQ23" s="113"/>
-      <c r="ER23" s="113"/>
-      <c r="ES23" s="113"/>
-      <c r="ET23" s="114"/>
-      <c r="EU23" s="103"/>
-      <c r="EV23" s="104"/>
-      <c r="EW23" s="104"/>
-      <c r="EX23" s="104"/>
-      <c r="EY23" s="104"/>
-      <c r="EZ23" s="104"/>
-      <c r="FA23" s="104"/>
-      <c r="FB23" s="104"/>
-      <c r="FC23" s="104"/>
-      <c r="FD23" s="104"/>
-      <c r="FE23" s="104"/>
-      <c r="FF23" s="105"/>
+      <c r="EI23" s="130"/>
+      <c r="EJ23" s="131"/>
+      <c r="EK23" s="131"/>
+      <c r="EL23" s="131"/>
+      <c r="EM23" s="131"/>
+      <c r="EN23" s="131"/>
+      <c r="EO23" s="131"/>
+      <c r="EP23" s="131"/>
+      <c r="EQ23" s="131"/>
+      <c r="ER23" s="131"/>
+      <c r="ES23" s="131"/>
+      <c r="ET23" s="132"/>
+      <c r="EU23" s="121"/>
+      <c r="EV23" s="122"/>
+      <c r="EW23" s="122"/>
+      <c r="EX23" s="122"/>
+      <c r="EY23" s="122"/>
+      <c r="EZ23" s="122"/>
+      <c r="FA23" s="122"/>
+      <c r="FB23" s="122"/>
+      <c r="FC23" s="122"/>
+      <c r="FD23" s="122"/>
+      <c r="FE23" s="122"/>
+      <c r="FF23" s="123"/>
     </row>
     <row r="24" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="99" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="99">
+      <c r="D24" s="91">
         <v>1</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="34"/>
@@ -4013,18 +4293,18 @@
       <c r="AN24" s="42"/>
       <c r="AO24" s="42"/>
       <c r="AP24" s="49"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
-      <c r="AX24" s="104"/>
-      <c r="AY24" s="104"/>
-      <c r="AZ24" s="104"/>
-      <c r="BA24" s="104"/>
-      <c r="BB24" s="105"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="122"/>
+      <c r="AS24" s="122"/>
+      <c r="AT24" s="122"/>
+      <c r="AU24" s="122"/>
+      <c r="AV24" s="122"/>
+      <c r="AW24" s="122"/>
+      <c r="AX24" s="122"/>
+      <c r="AY24" s="122"/>
+      <c r="AZ24" s="122"/>
+      <c r="BA24" s="122"/>
+      <c r="BB24" s="123"/>
       <c r="BC24" s="42"/>
       <c r="BD24" s="42"/>
       <c r="BE24" s="42"/>
@@ -4061,18 +4341,18 @@
       <c r="CJ24" s="42"/>
       <c r="CK24" s="42"/>
       <c r="CL24" s="49"/>
-      <c r="CM24" s="68"/>
-      <c r="CN24" s="68"/>
-      <c r="CO24" s="68"/>
-      <c r="CP24" s="68"/>
-      <c r="CQ24" s="68"/>
-      <c r="CR24" s="68"/>
-      <c r="CS24" s="68"/>
-      <c r="CT24" s="68"/>
-      <c r="CU24" s="68"/>
-      <c r="CV24" s="68"/>
-      <c r="CW24" s="68"/>
-      <c r="CX24" s="69"/>
+      <c r="CM24" s="61"/>
+      <c r="CN24" s="61"/>
+      <c r="CO24" s="61"/>
+      <c r="CP24" s="61"/>
+      <c r="CQ24" s="61"/>
+      <c r="CR24" s="61"/>
+      <c r="CS24" s="61"/>
+      <c r="CT24" s="61"/>
+      <c r="CU24" s="61"/>
+      <c r="CV24" s="61"/>
+      <c r="CW24" s="61"/>
+      <c r="CX24" s="62"/>
       <c r="CY24" s="42"/>
       <c r="CZ24" s="42"/>
       <c r="DA24" s="42"/>
@@ -4087,34 +4367,34 @@
       <c r="DJ24" s="49"/>
       <c r="DV24" s="17"/>
       <c r="EH24" s="17"/>
-      <c r="EI24" s="112"/>
-      <c r="EJ24" s="113"/>
-      <c r="EK24" s="113"/>
-      <c r="EL24" s="113"/>
-      <c r="EM24" s="113"/>
-      <c r="EN24" s="113"/>
-      <c r="EO24" s="113"/>
-      <c r="EP24" s="113"/>
-      <c r="EQ24" s="113"/>
-      <c r="ER24" s="113"/>
-      <c r="ES24" s="113"/>
-      <c r="ET24" s="114"/>
-      <c r="EU24" s="103"/>
-      <c r="EV24" s="104"/>
-      <c r="EW24" s="104"/>
-      <c r="EX24" s="104"/>
-      <c r="EY24" s="104"/>
-      <c r="EZ24" s="104"/>
-      <c r="FA24" s="104"/>
-      <c r="FB24" s="104"/>
-      <c r="FC24" s="104"/>
-      <c r="FD24" s="104"/>
-      <c r="FE24" s="104"/>
-      <c r="FF24" s="105"/>
+      <c r="EI24" s="130"/>
+      <c r="EJ24" s="131"/>
+      <c r="EK24" s="131"/>
+      <c r="EL24" s="131"/>
+      <c r="EM24" s="131"/>
+      <c r="EN24" s="131"/>
+      <c r="EO24" s="131"/>
+      <c r="EP24" s="131"/>
+      <c r="EQ24" s="131"/>
+      <c r="ER24" s="131"/>
+      <c r="ES24" s="131"/>
+      <c r="ET24" s="132"/>
+      <c r="EU24" s="121"/>
+      <c r="EV24" s="122"/>
+      <c r="EW24" s="122"/>
+      <c r="EX24" s="122"/>
+      <c r="EY24" s="122"/>
+      <c r="EZ24" s="122"/>
+      <c r="FA24" s="122"/>
+      <c r="FB24" s="122"/>
+      <c r="FC24" s="122"/>
+      <c r="FD24" s="122"/>
+      <c r="FE24" s="122"/>
+      <c r="FF24" s="123"/>
     </row>
     <row r="25" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="40" t="s">
         <v>27</v>
       </c>
@@ -4125,173 +4405,173 @@
         <v>43</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
-      <c r="AX25" s="104"/>
-      <c r="AY25" s="104"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
-      <c r="BB25" s="105"/>
-      <c r="BC25" s="149"/>
-      <c r="BD25" s="149"/>
-      <c r="BE25" s="149"/>
-      <c r="BF25" s="149"/>
-      <c r="BG25" s="149"/>
-      <c r="BH25" s="149"/>
-      <c r="BI25" s="149"/>
-      <c r="BJ25" s="149"/>
-      <c r="BK25" s="149"/>
-      <c r="BL25" s="149"/>
-      <c r="BM25" s="149"/>
-      <c r="BN25" s="149"/>
-      <c r="BO25" s="74"/>
-      <c r="BP25" s="73"/>
-      <c r="BQ25" s="73"/>
-      <c r="BR25" s="73"/>
-      <c r="BS25" s="73"/>
-      <c r="BT25" s="73"/>
-      <c r="BU25" s="73"/>
-      <c r="BV25" s="73"/>
-      <c r="BW25" s="73"/>
-      <c r="BX25" s="73"/>
-      <c r="BY25" s="73"/>
-      <c r="BZ25" s="75"/>
-      <c r="CA25" s="70"/>
-      <c r="CB25" s="71"/>
-      <c r="CC25" s="71"/>
-      <c r="CD25" s="71"/>
-      <c r="CE25" s="71"/>
-      <c r="CF25" s="71"/>
-      <c r="CG25" s="71"/>
-      <c r="CH25" s="71"/>
-      <c r="CI25" s="71"/>
-      <c r="CJ25" s="71"/>
-      <c r="CK25" s="71"/>
-      <c r="CL25" s="72"/>
-      <c r="CM25" s="71"/>
-      <c r="CN25" s="71"/>
-      <c r="CO25" s="71"/>
-      <c r="CP25" s="71"/>
-      <c r="CQ25" s="71"/>
-      <c r="CR25" s="71"/>
-      <c r="CS25" s="71"/>
-      <c r="CT25" s="71"/>
-      <c r="CU25" s="71"/>
-      <c r="CV25" s="71"/>
-      <c r="CW25" s="71"/>
-      <c r="CX25" s="72"/>
-      <c r="CY25" s="71"/>
-      <c r="CZ25" s="71"/>
-      <c r="DA25" s="71"/>
-      <c r="DB25" s="71"/>
-      <c r="DC25" s="71"/>
-      <c r="DD25" s="71"/>
-      <c r="DE25" s="71"/>
-      <c r="DF25" s="71"/>
-      <c r="DG25" s="71"/>
-      <c r="DH25" s="71"/>
-      <c r="DI25" s="71"/>
-      <c r="DJ25" s="72"/>
-      <c r="DK25" s="71"/>
-      <c r="DL25" s="71"/>
-      <c r="DM25" s="71"/>
-      <c r="DN25" s="71"/>
-      <c r="DO25" s="71"/>
-      <c r="DP25" s="71"/>
-      <c r="DQ25" s="71"/>
-      <c r="DR25" s="71"/>
-      <c r="DS25" s="71"/>
-      <c r="DT25" s="71"/>
-      <c r="DU25" s="71"/>
-      <c r="DV25" s="72"/>
-      <c r="DW25" s="71"/>
-      <c r="DX25" s="71"/>
-      <c r="DY25" s="71"/>
-      <c r="DZ25" s="71"/>
-      <c r="EA25" s="71"/>
-      <c r="EB25" s="71"/>
-      <c r="EC25" s="71"/>
-      <c r="ED25" s="71"/>
-      <c r="EE25" s="71"/>
-      <c r="EF25" s="71"/>
-      <c r="EG25" s="71"/>
-      <c r="EH25" s="72"/>
-      <c r="EI25" s="112"/>
-      <c r="EJ25" s="113"/>
-      <c r="EK25" s="113"/>
-      <c r="EL25" s="113"/>
-      <c r="EM25" s="113"/>
-      <c r="EN25" s="113"/>
-      <c r="EO25" s="113"/>
-      <c r="EP25" s="113"/>
-      <c r="EQ25" s="113"/>
-      <c r="ER25" s="113"/>
-      <c r="ES25" s="113"/>
-      <c r="ET25" s="114"/>
-      <c r="EU25" s="103"/>
-      <c r="EV25" s="104"/>
-      <c r="EW25" s="104"/>
-      <c r="EX25" s="104"/>
-      <c r="EY25" s="104"/>
-      <c r="EZ25" s="104"/>
-      <c r="FA25" s="104"/>
-      <c r="FB25" s="104"/>
-      <c r="FC25" s="104"/>
-      <c r="FD25" s="104"/>
-      <c r="FE25" s="104"/>
-      <c r="FF25" s="105"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="121"/>
+      <c r="AR25" s="122"/>
+      <c r="AS25" s="122"/>
+      <c r="AT25" s="122"/>
+      <c r="AU25" s="122"/>
+      <c r="AV25" s="122"/>
+      <c r="AW25" s="122"/>
+      <c r="AX25" s="122"/>
+      <c r="AY25" s="122"/>
+      <c r="AZ25" s="122"/>
+      <c r="BA25" s="122"/>
+      <c r="BB25" s="123"/>
+      <c r="BC25" s="110"/>
+      <c r="BD25" s="110"/>
+      <c r="BE25" s="110"/>
+      <c r="BF25" s="110"/>
+      <c r="BG25" s="110"/>
+      <c r="BH25" s="110"/>
+      <c r="BI25" s="110"/>
+      <c r="BJ25" s="110"/>
+      <c r="BK25" s="110"/>
+      <c r="BL25" s="110"/>
+      <c r="BM25" s="110"/>
+      <c r="BN25" s="110"/>
+      <c r="BO25" s="67"/>
+      <c r="BP25" s="66"/>
+      <c r="BQ25" s="66"/>
+      <c r="BR25" s="66"/>
+      <c r="BS25" s="66"/>
+      <c r="BT25" s="66"/>
+      <c r="BU25" s="66"/>
+      <c r="BV25" s="66"/>
+      <c r="BW25" s="66"/>
+      <c r="BX25" s="66"/>
+      <c r="BY25" s="66"/>
+      <c r="BZ25" s="68"/>
+      <c r="CA25" s="63"/>
+      <c r="CB25" s="64"/>
+      <c r="CC25" s="64"/>
+      <c r="CD25" s="64"/>
+      <c r="CE25" s="64"/>
+      <c r="CF25" s="64"/>
+      <c r="CG25" s="64"/>
+      <c r="CH25" s="64"/>
+      <c r="CI25" s="64"/>
+      <c r="CJ25" s="64"/>
+      <c r="CK25" s="64"/>
+      <c r="CL25" s="65"/>
+      <c r="CM25" s="64"/>
+      <c r="CN25" s="64"/>
+      <c r="CO25" s="64"/>
+      <c r="CP25" s="64"/>
+      <c r="CQ25" s="64"/>
+      <c r="CR25" s="64"/>
+      <c r="CS25" s="64"/>
+      <c r="CT25" s="64"/>
+      <c r="CU25" s="64"/>
+      <c r="CV25" s="64"/>
+      <c r="CW25" s="64"/>
+      <c r="CX25" s="65"/>
+      <c r="CY25" s="64"/>
+      <c r="CZ25" s="64"/>
+      <c r="DA25" s="64"/>
+      <c r="DB25" s="64"/>
+      <c r="DC25" s="64"/>
+      <c r="DD25" s="64"/>
+      <c r="DE25" s="64"/>
+      <c r="DF25" s="64"/>
+      <c r="DG25" s="64"/>
+      <c r="DH25" s="64"/>
+      <c r="DI25" s="64"/>
+      <c r="DJ25" s="65"/>
+      <c r="DK25" s="64"/>
+      <c r="DL25" s="64"/>
+      <c r="DM25" s="64"/>
+      <c r="DN25" s="64"/>
+      <c r="DO25" s="64"/>
+      <c r="DP25" s="64"/>
+      <c r="DQ25" s="64"/>
+      <c r="DR25" s="64"/>
+      <c r="DS25" s="64"/>
+      <c r="DT25" s="64"/>
+      <c r="DU25" s="64"/>
+      <c r="DV25" s="65"/>
+      <c r="DW25" s="64"/>
+      <c r="DX25" s="64"/>
+      <c r="DY25" s="64"/>
+      <c r="DZ25" s="64"/>
+      <c r="EA25" s="64"/>
+      <c r="EB25" s="64"/>
+      <c r="EC25" s="64"/>
+      <c r="ED25" s="64"/>
+      <c r="EE25" s="64"/>
+      <c r="EF25" s="64"/>
+      <c r="EG25" s="64"/>
+      <c r="EH25" s="65"/>
+      <c r="EI25" s="130"/>
+      <c r="EJ25" s="131"/>
+      <c r="EK25" s="131"/>
+      <c r="EL25" s="131"/>
+      <c r="EM25" s="131"/>
+      <c r="EN25" s="131"/>
+      <c r="EO25" s="131"/>
+      <c r="EP25" s="131"/>
+      <c r="EQ25" s="131"/>
+      <c r="ER25" s="131"/>
+      <c r="ES25" s="131"/>
+      <c r="ET25" s="132"/>
+      <c r="EU25" s="121"/>
+      <c r="EV25" s="122"/>
+      <c r="EW25" s="122"/>
+      <c r="EX25" s="122"/>
+      <c r="EY25" s="122"/>
+      <c r="EZ25" s="122"/>
+      <c r="FA25" s="122"/>
+      <c r="FB25" s="122"/>
+      <c r="FC25" s="122"/>
+      <c r="FD25" s="122"/>
+      <c r="FE25" s="122"/>
+      <c r="FF25" s="123"/>
     </row>
     <row r="26" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="99" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="91">
         <v>1</v>
       </c>
-      <c r="E26" s="99" t="s">
+      <c r="E26" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="34"/>
@@ -4300,83 +4580,83 @@
       <c r="AD26" s="17"/>
       <c r="AE26" s="15"/>
       <c r="AP26" s="17"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="104"/>
-      <c r="AS26" s="104"/>
-      <c r="AT26" s="104"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="104"/>
-      <c r="AX26" s="104"/>
-      <c r="AY26" s="104"/>
-      <c r="AZ26" s="104"/>
-      <c r="BA26" s="104"/>
-      <c r="BB26" s="105"/>
-      <c r="BC26" s="135"/>
-      <c r="BD26" s="135"/>
-      <c r="BE26" s="135"/>
-      <c r="BF26" s="135"/>
-      <c r="BG26" s="135"/>
-      <c r="BH26" s="135"/>
-      <c r="BI26" s="135"/>
-      <c r="BJ26" s="135"/>
-      <c r="BK26" s="135"/>
-      <c r="BL26" s="135"/>
-      <c r="BM26" s="135"/>
-      <c r="BN26" s="135"/>
-      <c r="BO26" s="77"/>
-      <c r="BP26" s="76"/>
-      <c r="BQ26" s="76"/>
-      <c r="BR26" s="76"/>
-      <c r="BS26" s="76"/>
-      <c r="BT26" s="76"/>
-      <c r="BU26" s="76"/>
-      <c r="BV26" s="76"/>
-      <c r="BW26" s="76"/>
-      <c r="BX26" s="76"/>
-      <c r="BY26" s="76"/>
-      <c r="BZ26" s="78"/>
+      <c r="AQ26" s="121"/>
+      <c r="AR26" s="122"/>
+      <c r="AS26" s="122"/>
+      <c r="AT26" s="122"/>
+      <c r="AU26" s="122"/>
+      <c r="AV26" s="122"/>
+      <c r="AW26" s="122"/>
+      <c r="AX26" s="122"/>
+      <c r="AY26" s="122"/>
+      <c r="AZ26" s="122"/>
+      <c r="BA26" s="122"/>
+      <c r="BB26" s="123"/>
+      <c r="BC26" s="96"/>
+      <c r="BD26" s="96"/>
+      <c r="BE26" s="96"/>
+      <c r="BF26" s="96"/>
+      <c r="BG26" s="96"/>
+      <c r="BH26" s="96"/>
+      <c r="BI26" s="96"/>
+      <c r="BJ26" s="96"/>
+      <c r="BK26" s="96"/>
+      <c r="BL26" s="96"/>
+      <c r="BM26" s="96"/>
+      <c r="BN26" s="96"/>
+      <c r="BO26" s="70"/>
+      <c r="BP26" s="69"/>
+      <c r="BQ26" s="69"/>
+      <c r="BR26" s="69"/>
+      <c r="BS26" s="69"/>
+      <c r="BT26" s="69"/>
+      <c r="BU26" s="69"/>
+      <c r="BV26" s="69"/>
+      <c r="BW26" s="69"/>
+      <c r="BX26" s="69"/>
+      <c r="BY26" s="69"/>
+      <c r="BZ26" s="71"/>
       <c r="CA26" s="15"/>
       <c r="CL26" s="17"/>
       <c r="CX26" s="17"/>
       <c r="DJ26" s="17"/>
       <c r="DV26" s="17"/>
       <c r="EH26" s="17"/>
-      <c r="EI26" s="112"/>
-      <c r="EJ26" s="113"/>
-      <c r="EK26" s="113"/>
-      <c r="EL26" s="113"/>
-      <c r="EM26" s="113"/>
-      <c r="EN26" s="113"/>
-      <c r="EO26" s="113"/>
-      <c r="EP26" s="113"/>
-      <c r="EQ26" s="113"/>
-      <c r="ER26" s="113"/>
-      <c r="ES26" s="113"/>
-      <c r="ET26" s="114"/>
-      <c r="EU26" s="103"/>
-      <c r="EV26" s="104"/>
-      <c r="EW26" s="104"/>
-      <c r="EX26" s="104"/>
-      <c r="EY26" s="104"/>
-      <c r="EZ26" s="104"/>
-      <c r="FA26" s="104"/>
-      <c r="FB26" s="104"/>
-      <c r="FC26" s="104"/>
-      <c r="FD26" s="104"/>
-      <c r="FE26" s="104"/>
-      <c r="FF26" s="105"/>
+      <c r="EI26" s="130"/>
+      <c r="EJ26" s="131"/>
+      <c r="EK26" s="131"/>
+      <c r="EL26" s="131"/>
+      <c r="EM26" s="131"/>
+      <c r="EN26" s="131"/>
+      <c r="EO26" s="131"/>
+      <c r="EP26" s="131"/>
+      <c r="EQ26" s="131"/>
+      <c r="ER26" s="131"/>
+      <c r="ES26" s="131"/>
+      <c r="ET26" s="132"/>
+      <c r="EU26" s="121"/>
+      <c r="EV26" s="122"/>
+      <c r="EW26" s="122"/>
+      <c r="EX26" s="122"/>
+      <c r="EY26" s="122"/>
+      <c r="EZ26" s="122"/>
+      <c r="FA26" s="122"/>
+      <c r="FB26" s="122"/>
+      <c r="FC26" s="122"/>
+      <c r="FD26" s="122"/>
+      <c r="FE26" s="122"/>
+      <c r="FF26" s="123"/>
     </row>
     <row r="27" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="99" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="91">
         <v>1</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="34"/>
@@ -4385,64 +4665,64 @@
       <c r="AD27" s="17"/>
       <c r="AE27" s="15"/>
       <c r="AP27" s="17"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="104"/>
-      <c r="AS27" s="104"/>
-      <c r="AT27" s="104"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="104"/>
-      <c r="AW27" s="104"/>
-      <c r="AX27" s="104"/>
-      <c r="AY27" s="104"/>
-      <c r="AZ27" s="104"/>
-      <c r="BA27" s="104"/>
-      <c r="BB27" s="105"/>
-      <c r="BO27" s="77"/>
-      <c r="BP27" s="76"/>
-      <c r="BQ27" s="76"/>
-      <c r="BR27" s="76"/>
-      <c r="BS27" s="76"/>
-      <c r="BT27" s="76"/>
-      <c r="BU27" s="76"/>
-      <c r="BV27" s="76"/>
-      <c r="BW27" s="76"/>
-      <c r="BX27" s="76"/>
-      <c r="BY27" s="76"/>
-      <c r="BZ27" s="78"/>
+      <c r="AQ27" s="121"/>
+      <c r="AR27" s="122"/>
+      <c r="AS27" s="122"/>
+      <c r="AT27" s="122"/>
+      <c r="AU27" s="122"/>
+      <c r="AV27" s="122"/>
+      <c r="AW27" s="122"/>
+      <c r="AX27" s="122"/>
+      <c r="AY27" s="122"/>
+      <c r="AZ27" s="122"/>
+      <c r="BA27" s="122"/>
+      <c r="BB27" s="123"/>
+      <c r="BO27" s="70"/>
+      <c r="BP27" s="69"/>
+      <c r="BQ27" s="69"/>
+      <c r="BR27" s="69"/>
+      <c r="BS27" s="69"/>
+      <c r="BT27" s="69"/>
+      <c r="BU27" s="69"/>
+      <c r="BV27" s="69"/>
+      <c r="BW27" s="69"/>
+      <c r="BX27" s="69"/>
+      <c r="BY27" s="69"/>
+      <c r="BZ27" s="71"/>
       <c r="CA27" s="15"/>
       <c r="CL27" s="17"/>
       <c r="CX27" s="17"/>
       <c r="DJ27" s="17"/>
       <c r="DV27" s="17"/>
       <c r="EH27" s="17"/>
-      <c r="EI27" s="112"/>
-      <c r="EJ27" s="113"/>
-      <c r="EK27" s="113"/>
-      <c r="EL27" s="113"/>
-      <c r="EM27" s="113"/>
-      <c r="EN27" s="113"/>
-      <c r="EO27" s="113"/>
-      <c r="EP27" s="113"/>
-      <c r="EQ27" s="113"/>
-      <c r="ER27" s="113"/>
-      <c r="ES27" s="113"/>
-      <c r="ET27" s="114"/>
-      <c r="EU27" s="103"/>
-      <c r="EV27" s="104"/>
-      <c r="EW27" s="104"/>
-      <c r="EX27" s="104"/>
-      <c r="EY27" s="104"/>
-      <c r="EZ27" s="104"/>
-      <c r="FA27" s="104"/>
-      <c r="FB27" s="104"/>
-      <c r="FC27" s="104"/>
-      <c r="FD27" s="104"/>
-      <c r="FE27" s="104"/>
-      <c r="FF27" s="105"/>
+      <c r="EI27" s="130"/>
+      <c r="EJ27" s="131"/>
+      <c r="EK27" s="131"/>
+      <c r="EL27" s="131"/>
+      <c r="EM27" s="131"/>
+      <c r="EN27" s="131"/>
+      <c r="EO27" s="131"/>
+      <c r="EP27" s="131"/>
+      <c r="EQ27" s="131"/>
+      <c r="ER27" s="131"/>
+      <c r="ES27" s="131"/>
+      <c r="ET27" s="132"/>
+      <c r="EU27" s="121"/>
+      <c r="EV27" s="122"/>
+      <c r="EW27" s="122"/>
+      <c r="EX27" s="122"/>
+      <c r="EY27" s="122"/>
+      <c r="EZ27" s="122"/>
+      <c r="FA27" s="122"/>
+      <c r="FB27" s="122"/>
+      <c r="FC27" s="122"/>
+      <c r="FD27" s="122"/>
+      <c r="FE27" s="122"/>
+      <c r="FF27" s="123"/>
     </row>
     <row r="28" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="97"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="40" t="s">
         <v>28</v>
       </c>
@@ -4458,18 +4738,18 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="15"/>
       <c r="AP28" s="17"/>
-      <c r="AQ28" s="103"/>
-      <c r="AR28" s="104"/>
-      <c r="AS28" s="104"/>
-      <c r="AT28" s="104"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="104"/>
-      <c r="AW28" s="104"/>
-      <c r="AX28" s="104"/>
-      <c r="AY28" s="104"/>
-      <c r="AZ28" s="104"/>
-      <c r="BA28" s="104"/>
-      <c r="BB28" s="105"/>
+      <c r="AQ28" s="121"/>
+      <c r="AR28" s="122"/>
+      <c r="AS28" s="122"/>
+      <c r="AT28" s="122"/>
+      <c r="AU28" s="122"/>
+      <c r="AV28" s="122"/>
+      <c r="AW28" s="122"/>
+      <c r="AX28" s="122"/>
+      <c r="AY28" s="122"/>
+      <c r="AZ28" s="122"/>
+      <c r="BA28" s="122"/>
+      <c r="BB28" s="123"/>
       <c r="BO28" s="15"/>
       <c r="BZ28" s="17"/>
       <c r="CA28" s="48"/>
@@ -4499,41 +4779,41 @@
       <c r="DJ28" s="17"/>
       <c r="DV28" s="17"/>
       <c r="EH28" s="17"/>
-      <c r="EI28" s="112"/>
-      <c r="EJ28" s="113"/>
-      <c r="EK28" s="113"/>
-      <c r="EL28" s="113"/>
-      <c r="EM28" s="113"/>
-      <c r="EN28" s="113"/>
-      <c r="EO28" s="113"/>
-      <c r="EP28" s="113"/>
-      <c r="EQ28" s="113"/>
-      <c r="ER28" s="113"/>
-      <c r="ES28" s="113"/>
-      <c r="ET28" s="114"/>
-      <c r="EU28" s="103"/>
-      <c r="EV28" s="104"/>
-      <c r="EW28" s="104"/>
-      <c r="EX28" s="104"/>
-      <c r="EY28" s="104"/>
-      <c r="EZ28" s="104"/>
-      <c r="FA28" s="104"/>
-      <c r="FB28" s="104"/>
-      <c r="FC28" s="104"/>
-      <c r="FD28" s="104"/>
-      <c r="FE28" s="104"/>
-      <c r="FF28" s="105"/>
+      <c r="EI28" s="130"/>
+      <c r="EJ28" s="131"/>
+      <c r="EK28" s="131"/>
+      <c r="EL28" s="131"/>
+      <c r="EM28" s="131"/>
+      <c r="EN28" s="131"/>
+      <c r="EO28" s="131"/>
+      <c r="EP28" s="131"/>
+      <c r="EQ28" s="131"/>
+      <c r="ER28" s="131"/>
+      <c r="ES28" s="131"/>
+      <c r="ET28" s="132"/>
+      <c r="EU28" s="121"/>
+      <c r="EV28" s="122"/>
+      <c r="EW28" s="122"/>
+      <c r="EX28" s="122"/>
+      <c r="EY28" s="122"/>
+      <c r="EZ28" s="122"/>
+      <c r="FA28" s="122"/>
+      <c r="FB28" s="122"/>
+      <c r="FC28" s="122"/>
+      <c r="FD28" s="122"/>
+      <c r="FE28" s="122"/>
+      <c r="FF28" s="123"/>
     </row>
     <row r="29" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="99" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="91">
         <v>1</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="34"/>
@@ -4542,71 +4822,71 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="15"/>
       <c r="AP29" s="17"/>
-      <c r="AQ29" s="103"/>
-      <c r="AR29" s="104"/>
-      <c r="AS29" s="104"/>
-      <c r="AT29" s="104"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="104"/>
-      <c r="AX29" s="104"/>
-      <c r="AY29" s="104"/>
-      <c r="AZ29" s="104"/>
-      <c r="BA29" s="104"/>
-      <c r="BB29" s="105"/>
+      <c r="AQ29" s="121"/>
+      <c r="AR29" s="122"/>
+      <c r="AS29" s="122"/>
+      <c r="AT29" s="122"/>
+      <c r="AU29" s="122"/>
+      <c r="AV29" s="122"/>
+      <c r="AW29" s="122"/>
+      <c r="AX29" s="122"/>
+      <c r="AY29" s="122"/>
+      <c r="AZ29" s="122"/>
+      <c r="BA29" s="122"/>
+      <c r="BB29" s="123"/>
       <c r="BO29" s="15"/>
       <c r="BZ29" s="17"/>
-      <c r="CA29" s="77"/>
-      <c r="CB29" s="76"/>
-      <c r="CC29" s="76"/>
-      <c r="CD29" s="76"/>
-      <c r="CE29" s="76"/>
-      <c r="CF29" s="76"/>
-      <c r="CG29" s="76"/>
-      <c r="CH29" s="76"/>
-      <c r="CI29" s="76"/>
-      <c r="CJ29" s="76"/>
-      <c r="CK29" s="76"/>
-      <c r="CL29" s="78"/>
+      <c r="CA29" s="70"/>
+      <c r="CB29" s="69"/>
+      <c r="CC29" s="69"/>
+      <c r="CD29" s="69"/>
+      <c r="CE29" s="69"/>
+      <c r="CF29" s="69"/>
+      <c r="CG29" s="69"/>
+      <c r="CH29" s="69"/>
+      <c r="CI29" s="69"/>
+      <c r="CJ29" s="69"/>
+      <c r="CK29" s="69"/>
+      <c r="CL29" s="71"/>
       <c r="CX29" s="17"/>
       <c r="DJ29" s="17"/>
       <c r="DV29" s="17"/>
       <c r="EH29" s="17"/>
-      <c r="EI29" s="112"/>
-      <c r="EJ29" s="113"/>
-      <c r="EK29" s="113"/>
-      <c r="EL29" s="113"/>
-      <c r="EM29" s="113"/>
-      <c r="EN29" s="113"/>
-      <c r="EO29" s="113"/>
-      <c r="EP29" s="113"/>
-      <c r="EQ29" s="113"/>
-      <c r="ER29" s="113"/>
-      <c r="ES29" s="113"/>
-      <c r="ET29" s="114"/>
-      <c r="EU29" s="103"/>
-      <c r="EV29" s="104"/>
-      <c r="EW29" s="104"/>
-      <c r="EX29" s="104"/>
-      <c r="EY29" s="104"/>
-      <c r="EZ29" s="104"/>
-      <c r="FA29" s="104"/>
-      <c r="FB29" s="104"/>
-      <c r="FC29" s="104"/>
-      <c r="FD29" s="104"/>
-      <c r="FE29" s="104"/>
-      <c r="FF29" s="105"/>
+      <c r="EI29" s="130"/>
+      <c r="EJ29" s="131"/>
+      <c r="EK29" s="131"/>
+      <c r="EL29" s="131"/>
+      <c r="EM29" s="131"/>
+      <c r="EN29" s="131"/>
+      <c r="EO29" s="131"/>
+      <c r="EP29" s="131"/>
+      <c r="EQ29" s="131"/>
+      <c r="ER29" s="131"/>
+      <c r="ES29" s="131"/>
+      <c r="ET29" s="132"/>
+      <c r="EU29" s="121"/>
+      <c r="EV29" s="122"/>
+      <c r="EW29" s="122"/>
+      <c r="EX29" s="122"/>
+      <c r="EY29" s="122"/>
+      <c r="EZ29" s="122"/>
+      <c r="FA29" s="122"/>
+      <c r="FB29" s="122"/>
+      <c r="FC29" s="122"/>
+      <c r="FD29" s="122"/>
+      <c r="FE29" s="122"/>
+      <c r="FF29" s="123"/>
     </row>
     <row r="30" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="99" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D30" s="91">
         <v>1</v>
       </c>
-      <c r="E30" s="99" t="s">
+      <c r="E30" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="34"/>
@@ -4615,65 +4895,65 @@
       <c r="AD30" s="17"/>
       <c r="AE30" s="15"/>
       <c r="AP30" s="17"/>
-      <c r="AQ30" s="103"/>
-      <c r="AR30" s="104"/>
-      <c r="AS30" s="104"/>
-      <c r="AT30" s="104"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="104"/>
-      <c r="AW30" s="104"/>
-      <c r="AX30" s="104"/>
-      <c r="AY30" s="104"/>
-      <c r="AZ30" s="104"/>
-      <c r="BA30" s="104"/>
-      <c r="BB30" s="105"/>
+      <c r="AQ30" s="121"/>
+      <c r="AR30" s="122"/>
+      <c r="AS30" s="122"/>
+      <c r="AT30" s="122"/>
+      <c r="AU30" s="122"/>
+      <c r="AV30" s="122"/>
+      <c r="AW30" s="122"/>
+      <c r="AX30" s="122"/>
+      <c r="AY30" s="122"/>
+      <c r="AZ30" s="122"/>
+      <c r="BA30" s="122"/>
+      <c r="BB30" s="123"/>
       <c r="BO30" s="15"/>
       <c r="BZ30" s="17"/>
       <c r="CA30" s="15"/>
       <c r="CL30" s="17"/>
-      <c r="CM30" s="76"/>
-      <c r="CN30" s="76"/>
-      <c r="CO30" s="76"/>
-      <c r="CP30" s="76"/>
-      <c r="CQ30" s="76"/>
-      <c r="CR30" s="76"/>
-      <c r="CS30" s="76"/>
-      <c r="CT30" s="76"/>
-      <c r="CU30" s="76"/>
-      <c r="CV30" s="76"/>
-      <c r="CW30" s="76"/>
-      <c r="CX30" s="78"/>
+      <c r="CM30" s="69"/>
+      <c r="CN30" s="69"/>
+      <c r="CO30" s="69"/>
+      <c r="CP30" s="69"/>
+      <c r="CQ30" s="69"/>
+      <c r="CR30" s="69"/>
+      <c r="CS30" s="69"/>
+      <c r="CT30" s="69"/>
+      <c r="CU30" s="69"/>
+      <c r="CV30" s="69"/>
+      <c r="CW30" s="69"/>
+      <c r="CX30" s="71"/>
       <c r="DJ30" s="17"/>
       <c r="DV30" s="17"/>
       <c r="EH30" s="17"/>
-      <c r="EI30" s="112"/>
-      <c r="EJ30" s="113"/>
-      <c r="EK30" s="113"/>
-      <c r="EL30" s="113"/>
-      <c r="EM30" s="113"/>
-      <c r="EN30" s="113"/>
-      <c r="EO30" s="113"/>
-      <c r="EP30" s="113"/>
-      <c r="EQ30" s="113"/>
-      <c r="ER30" s="113"/>
-      <c r="ES30" s="113"/>
-      <c r="ET30" s="114"/>
-      <c r="EU30" s="103"/>
-      <c r="EV30" s="104"/>
-      <c r="EW30" s="104"/>
-      <c r="EX30" s="104"/>
-      <c r="EY30" s="104"/>
-      <c r="EZ30" s="104"/>
-      <c r="FA30" s="104"/>
-      <c r="FB30" s="104"/>
-      <c r="FC30" s="104"/>
-      <c r="FD30" s="104"/>
-      <c r="FE30" s="104"/>
-      <c r="FF30" s="105"/>
+      <c r="EI30" s="130"/>
+      <c r="EJ30" s="131"/>
+      <c r="EK30" s="131"/>
+      <c r="EL30" s="131"/>
+      <c r="EM30" s="131"/>
+      <c r="EN30" s="131"/>
+      <c r="EO30" s="131"/>
+      <c r="EP30" s="131"/>
+      <c r="EQ30" s="131"/>
+      <c r="ER30" s="131"/>
+      <c r="ES30" s="131"/>
+      <c r="ET30" s="132"/>
+      <c r="EU30" s="121"/>
+      <c r="EV30" s="122"/>
+      <c r="EW30" s="122"/>
+      <c r="EX30" s="122"/>
+      <c r="EY30" s="122"/>
+      <c r="EZ30" s="122"/>
+      <c r="FA30" s="122"/>
+      <c r="FB30" s="122"/>
+      <c r="FC30" s="122"/>
+      <c r="FD30" s="122"/>
+      <c r="FE30" s="122"/>
+      <c r="FF30" s="123"/>
     </row>
     <row r="31" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="40" t="s">
         <v>31</v>
       </c>
@@ -4689,18 +4969,18 @@
       <c r="AD31" s="17"/>
       <c r="AE31" s="15"/>
       <c r="AP31" s="17"/>
-      <c r="AQ31" s="103"/>
-      <c r="AR31" s="104"/>
-      <c r="AS31" s="104"/>
-      <c r="AT31" s="104"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="104"/>
-      <c r="AX31" s="104"/>
-      <c r="AY31" s="104"/>
-      <c r="AZ31" s="104"/>
-      <c r="BA31" s="104"/>
-      <c r="BB31" s="105"/>
+      <c r="AQ31" s="121"/>
+      <c r="AR31" s="122"/>
+      <c r="AS31" s="122"/>
+      <c r="AT31" s="122"/>
+      <c r="AU31" s="122"/>
+      <c r="AV31" s="122"/>
+      <c r="AW31" s="122"/>
+      <c r="AX31" s="122"/>
+      <c r="AY31" s="122"/>
+      <c r="AZ31" s="122"/>
+      <c r="BA31" s="122"/>
+      <c r="BB31" s="123"/>
       <c r="BO31" s="15"/>
       <c r="BZ31" s="17"/>
       <c r="CA31" s="15"/>
@@ -4720,34 +5000,34 @@
       <c r="DJ31" s="47"/>
       <c r="DV31" s="17"/>
       <c r="EH31" s="17"/>
-      <c r="EI31" s="112"/>
-      <c r="EJ31" s="113"/>
-      <c r="EK31" s="113"/>
-      <c r="EL31" s="113"/>
-      <c r="EM31" s="113"/>
-      <c r="EN31" s="113"/>
-      <c r="EO31" s="113"/>
-      <c r="EP31" s="113"/>
-      <c r="EQ31" s="113"/>
-      <c r="ER31" s="113"/>
-      <c r="ES31" s="113"/>
-      <c r="ET31" s="114"/>
-      <c r="EU31" s="103"/>
-      <c r="EV31" s="104"/>
-      <c r="EW31" s="104"/>
-      <c r="EX31" s="104"/>
-      <c r="EY31" s="104"/>
-      <c r="EZ31" s="104"/>
-      <c r="FA31" s="104"/>
-      <c r="FB31" s="104"/>
-      <c r="FC31" s="104"/>
-      <c r="FD31" s="104"/>
-      <c r="FE31" s="104"/>
-      <c r="FF31" s="105"/>
+      <c r="EI31" s="130"/>
+      <c r="EJ31" s="131"/>
+      <c r="EK31" s="131"/>
+      <c r="EL31" s="131"/>
+      <c r="EM31" s="131"/>
+      <c r="EN31" s="131"/>
+      <c r="EO31" s="131"/>
+      <c r="EP31" s="131"/>
+      <c r="EQ31" s="131"/>
+      <c r="ER31" s="131"/>
+      <c r="ES31" s="131"/>
+      <c r="ET31" s="132"/>
+      <c r="EU31" s="121"/>
+      <c r="EV31" s="122"/>
+      <c r="EW31" s="122"/>
+      <c r="EX31" s="122"/>
+      <c r="EY31" s="122"/>
+      <c r="EZ31" s="122"/>
+      <c r="FA31" s="122"/>
+      <c r="FB31" s="122"/>
+      <c r="FC31" s="122"/>
+      <c r="FD31" s="122"/>
+      <c r="FE31" s="122"/>
+      <c r="FF31" s="123"/>
     </row>
     <row r="32" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="87" t="s">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="33" t="s">
@@ -4765,18 +5045,18 @@
       <c r="AD32" s="17"/>
       <c r="AE32" s="15"/>
       <c r="AP32" s="17"/>
-      <c r="AQ32" s="103"/>
-      <c r="AR32" s="104"/>
-      <c r="AS32" s="104"/>
-      <c r="AT32" s="104"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="104"/>
-      <c r="AW32" s="104"/>
-      <c r="AX32" s="104"/>
-      <c r="AY32" s="104"/>
-      <c r="AZ32" s="104"/>
-      <c r="BA32" s="104"/>
-      <c r="BB32" s="105"/>
+      <c r="AQ32" s="121"/>
+      <c r="AR32" s="122"/>
+      <c r="AS32" s="122"/>
+      <c r="AT32" s="122"/>
+      <c r="AU32" s="122"/>
+      <c r="AV32" s="122"/>
+      <c r="AW32" s="122"/>
+      <c r="AX32" s="122"/>
+      <c r="AY32" s="122"/>
+      <c r="AZ32" s="122"/>
+      <c r="BA32" s="122"/>
+      <c r="BB32" s="123"/>
       <c r="BO32" s="15"/>
       <c r="BZ32" s="17"/>
       <c r="CA32" s="15"/>
@@ -4796,34 +5076,34 @@
       <c r="DU32" s="36"/>
       <c r="DV32" s="37"/>
       <c r="EH32" s="17"/>
-      <c r="EI32" s="112"/>
-      <c r="EJ32" s="113"/>
-      <c r="EK32" s="113"/>
-      <c r="EL32" s="113"/>
-      <c r="EM32" s="113"/>
-      <c r="EN32" s="113"/>
-      <c r="EO32" s="113"/>
-      <c r="EP32" s="113"/>
-      <c r="EQ32" s="113"/>
-      <c r="ER32" s="113"/>
-      <c r="ES32" s="113"/>
-      <c r="ET32" s="114"/>
-      <c r="EU32" s="103"/>
-      <c r="EV32" s="104"/>
-      <c r="EW32" s="104"/>
-      <c r="EX32" s="104"/>
-      <c r="EY32" s="104"/>
-      <c r="EZ32" s="104"/>
-      <c r="FA32" s="104"/>
-      <c r="FB32" s="104"/>
-      <c r="FC32" s="104"/>
-      <c r="FD32" s="104"/>
-      <c r="FE32" s="104"/>
-      <c r="FF32" s="105"/>
+      <c r="EI32" s="130"/>
+      <c r="EJ32" s="131"/>
+      <c r="EK32" s="131"/>
+      <c r="EL32" s="131"/>
+      <c r="EM32" s="131"/>
+      <c r="EN32" s="131"/>
+      <c r="EO32" s="131"/>
+      <c r="EP32" s="131"/>
+      <c r="EQ32" s="131"/>
+      <c r="ER32" s="131"/>
+      <c r="ES32" s="131"/>
+      <c r="ET32" s="132"/>
+      <c r="EU32" s="121"/>
+      <c r="EV32" s="122"/>
+      <c r="EW32" s="122"/>
+      <c r="EX32" s="122"/>
+      <c r="EY32" s="122"/>
+      <c r="EZ32" s="122"/>
+      <c r="FA32" s="122"/>
+      <c r="FB32" s="122"/>
+      <c r="FC32" s="122"/>
+      <c r="FD32" s="122"/>
+      <c r="FE32" s="122"/>
+      <c r="FF32" s="123"/>
     </row>
     <row r="33" spans="1:162" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="40" t="s">
         <v>36</v>
       </c>
@@ -4839,18 +5119,18 @@
       <c r="AD33" s="17"/>
       <c r="AE33" s="15"/>
       <c r="AP33" s="17"/>
-      <c r="AQ33" s="103"/>
-      <c r="AR33" s="104"/>
-      <c r="AS33" s="104"/>
-      <c r="AT33" s="104"/>
-      <c r="AU33" s="104"/>
-      <c r="AV33" s="104"/>
-      <c r="AW33" s="104"/>
-      <c r="AX33" s="104"/>
-      <c r="AY33" s="104"/>
-      <c r="AZ33" s="104"/>
-      <c r="BA33" s="104"/>
-      <c r="BB33" s="105"/>
+      <c r="AQ33" s="121"/>
+      <c r="AR33" s="122"/>
+      <c r="AS33" s="122"/>
+      <c r="AT33" s="122"/>
+      <c r="AU33" s="122"/>
+      <c r="AV33" s="122"/>
+      <c r="AW33" s="122"/>
+      <c r="AX33" s="122"/>
+      <c r="AY33" s="122"/>
+      <c r="AZ33" s="122"/>
+      <c r="BA33" s="122"/>
+      <c r="BB33" s="123"/>
       <c r="BO33" s="15"/>
       <c r="BZ33" s="17"/>
       <c r="CA33" s="15"/>
@@ -4870,34 +5150,34 @@
       <c r="DU33" s="46"/>
       <c r="DV33" s="47"/>
       <c r="EH33" s="17"/>
-      <c r="EI33" s="112"/>
-      <c r="EJ33" s="113"/>
-      <c r="EK33" s="113"/>
-      <c r="EL33" s="113"/>
-      <c r="EM33" s="113"/>
-      <c r="EN33" s="113"/>
-      <c r="EO33" s="113"/>
-      <c r="EP33" s="113"/>
-      <c r="EQ33" s="113"/>
-      <c r="ER33" s="113"/>
-      <c r="ES33" s="113"/>
-      <c r="ET33" s="114"/>
-      <c r="EU33" s="103"/>
-      <c r="EV33" s="104"/>
-      <c r="EW33" s="104"/>
-      <c r="EX33" s="104"/>
-      <c r="EY33" s="104"/>
-      <c r="EZ33" s="104"/>
-      <c r="FA33" s="104"/>
-      <c r="FB33" s="104"/>
-      <c r="FC33" s="104"/>
-      <c r="FD33" s="104"/>
-      <c r="FE33" s="104"/>
-      <c r="FF33" s="105"/>
+      <c r="EI33" s="130"/>
+      <c r="EJ33" s="131"/>
+      <c r="EK33" s="131"/>
+      <c r="EL33" s="131"/>
+      <c r="EM33" s="131"/>
+      <c r="EN33" s="131"/>
+      <c r="EO33" s="131"/>
+      <c r="EP33" s="131"/>
+      <c r="EQ33" s="131"/>
+      <c r="ER33" s="131"/>
+      <c r="ES33" s="131"/>
+      <c r="ET33" s="132"/>
+      <c r="EU33" s="121"/>
+      <c r="EV33" s="122"/>
+      <c r="EW33" s="122"/>
+      <c r="EX33" s="122"/>
+      <c r="EY33" s="122"/>
+      <c r="EZ33" s="122"/>
+      <c r="FA33" s="122"/>
+      <c r="FB33" s="122"/>
+      <c r="FC33" s="122"/>
+      <c r="FD33" s="122"/>
+      <c r="FE33" s="122"/>
+      <c r="FF33" s="123"/>
     </row>
     <row r="34" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="40" t="s">
         <v>31</v>
       </c>
@@ -4913,18 +5193,18 @@
       <c r="AD34" s="17"/>
       <c r="AE34" s="15"/>
       <c r="AP34" s="17"/>
-      <c r="AQ34" s="103"/>
-      <c r="AR34" s="104"/>
-      <c r="AS34" s="104"/>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="104"/>
-      <c r="AW34" s="104"/>
-      <c r="AX34" s="104"/>
-      <c r="AY34" s="104"/>
-      <c r="AZ34" s="104"/>
-      <c r="BA34" s="104"/>
-      <c r="BB34" s="105"/>
+      <c r="AQ34" s="121"/>
+      <c r="AR34" s="122"/>
+      <c r="AS34" s="122"/>
+      <c r="AT34" s="122"/>
+      <c r="AU34" s="122"/>
+      <c r="AV34" s="122"/>
+      <c r="AW34" s="122"/>
+      <c r="AX34" s="122"/>
+      <c r="AY34" s="122"/>
+      <c r="AZ34" s="122"/>
+      <c r="BA34" s="122"/>
+      <c r="BB34" s="123"/>
       <c r="BO34" s="15"/>
       <c r="BZ34" s="17"/>
       <c r="CA34" s="15"/>
@@ -4944,41 +5224,41 @@
       <c r="DU34" s="46"/>
       <c r="DV34" s="47"/>
       <c r="EH34" s="17"/>
-      <c r="EI34" s="112"/>
-      <c r="EJ34" s="113"/>
-      <c r="EK34" s="113"/>
-      <c r="EL34" s="113"/>
-      <c r="EM34" s="113"/>
-      <c r="EN34" s="113"/>
-      <c r="EO34" s="113"/>
-      <c r="EP34" s="113"/>
-      <c r="EQ34" s="113"/>
-      <c r="ER34" s="113"/>
-      <c r="ES34" s="113"/>
-      <c r="ET34" s="114"/>
-      <c r="EU34" s="103"/>
-      <c r="EV34" s="104"/>
-      <c r="EW34" s="104"/>
-      <c r="EX34" s="104"/>
-      <c r="EY34" s="104"/>
-      <c r="EZ34" s="104"/>
-      <c r="FA34" s="104"/>
-      <c r="FB34" s="104"/>
-      <c r="FC34" s="104"/>
-      <c r="FD34" s="104"/>
-      <c r="FE34" s="104"/>
-      <c r="FF34" s="105"/>
+      <c r="EI34" s="130"/>
+      <c r="EJ34" s="131"/>
+      <c r="EK34" s="131"/>
+      <c r="EL34" s="131"/>
+      <c r="EM34" s="131"/>
+      <c r="EN34" s="131"/>
+      <c r="EO34" s="131"/>
+      <c r="EP34" s="131"/>
+      <c r="EQ34" s="131"/>
+      <c r="ER34" s="131"/>
+      <c r="ES34" s="131"/>
+      <c r="ET34" s="132"/>
+      <c r="EU34" s="121"/>
+      <c r="EV34" s="122"/>
+      <c r="EW34" s="122"/>
+      <c r="EX34" s="122"/>
+      <c r="EY34" s="122"/>
+      <c r="EZ34" s="122"/>
+      <c r="FA34" s="122"/>
+      <c r="FB34" s="122"/>
+      <c r="FC34" s="122"/>
+      <c r="FD34" s="122"/>
+      <c r="FE34" s="122"/>
+      <c r="FF34" s="123"/>
     </row>
     <row r="35" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="128" t="s">
+      <c r="A35" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="129"/>
-      <c r="C35" s="130"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="26">
         <v>5</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="78" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="34"/>
@@ -4987,18 +5267,18 @@
       <c r="AD35" s="17"/>
       <c r="AE35" s="15"/>
       <c r="AP35" s="17"/>
-      <c r="AQ35" s="103"/>
-      <c r="AR35" s="104"/>
-      <c r="AS35" s="104"/>
-      <c r="AT35" s="104"/>
-      <c r="AU35" s="104"/>
-      <c r="AV35" s="104"/>
-      <c r="AW35" s="104"/>
-      <c r="AX35" s="104"/>
-      <c r="AY35" s="104"/>
-      <c r="AZ35" s="104"/>
-      <c r="BA35" s="104"/>
-      <c r="BB35" s="105"/>
+      <c r="AQ35" s="121"/>
+      <c r="AR35" s="122"/>
+      <c r="AS35" s="122"/>
+      <c r="AT35" s="122"/>
+      <c r="AU35" s="122"/>
+      <c r="AV35" s="122"/>
+      <c r="AW35" s="122"/>
+      <c r="AX35" s="122"/>
+      <c r="AY35" s="122"/>
+      <c r="AZ35" s="122"/>
+      <c r="BA35" s="122"/>
+      <c r="BB35" s="123"/>
       <c r="BO35" s="15"/>
       <c r="BZ35" s="17"/>
       <c r="CA35" s="15"/>
@@ -5017,41 +5297,41 @@
       <c r="EE35" s="14"/>
       <c r="EF35" s="14"/>
       <c r="EG35" s="14"/>
-      <c r="EH35" s="79"/>
-      <c r="EI35" s="112"/>
-      <c r="EJ35" s="113"/>
-      <c r="EK35" s="113"/>
-      <c r="EL35" s="113"/>
-      <c r="EM35" s="113"/>
-      <c r="EN35" s="113"/>
-      <c r="EO35" s="113"/>
-      <c r="EP35" s="113"/>
-      <c r="EQ35" s="113"/>
-      <c r="ER35" s="113"/>
-      <c r="ES35" s="113"/>
-      <c r="ET35" s="114"/>
-      <c r="EU35" s="103"/>
-      <c r="EV35" s="104"/>
-      <c r="EW35" s="104"/>
-      <c r="EX35" s="104"/>
-      <c r="EY35" s="104"/>
-      <c r="EZ35" s="104"/>
-      <c r="FA35" s="104"/>
-      <c r="FB35" s="104"/>
-      <c r="FC35" s="104"/>
-      <c r="FD35" s="104"/>
-      <c r="FE35" s="104"/>
-      <c r="FF35" s="105"/>
+      <c r="EH35" s="72"/>
+      <c r="EI35" s="130"/>
+      <c r="EJ35" s="131"/>
+      <c r="EK35" s="131"/>
+      <c r="EL35" s="131"/>
+      <c r="EM35" s="131"/>
+      <c r="EN35" s="131"/>
+      <c r="EO35" s="131"/>
+      <c r="EP35" s="131"/>
+      <c r="EQ35" s="131"/>
+      <c r="ER35" s="131"/>
+      <c r="ES35" s="131"/>
+      <c r="ET35" s="132"/>
+      <c r="EU35" s="121"/>
+      <c r="EV35" s="122"/>
+      <c r="EW35" s="122"/>
+      <c r="EX35" s="122"/>
+      <c r="EY35" s="122"/>
+      <c r="EZ35" s="122"/>
+      <c r="FA35" s="122"/>
+      <c r="FB35" s="122"/>
+      <c r="FC35" s="122"/>
+      <c r="FD35" s="122"/>
+      <c r="FE35" s="122"/>
+      <c r="FF35" s="123"/>
     </row>
     <row r="36" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36" s="82">
         <v>5</v>
       </c>
       <c r="E36" s="40" t="s">
@@ -5063,18 +5343,18 @@
       <c r="AD36" s="17"/>
       <c r="AE36" s="15"/>
       <c r="AP36" s="17"/>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="104"/>
-      <c r="AS36" s="104"/>
-      <c r="AT36" s="104"/>
-      <c r="AU36" s="104"/>
-      <c r="AV36" s="104"/>
-      <c r="AW36" s="104"/>
-      <c r="AX36" s="104"/>
-      <c r="AY36" s="104"/>
-      <c r="AZ36" s="104"/>
-      <c r="BA36" s="104"/>
-      <c r="BB36" s="105"/>
+      <c r="AQ36" s="121"/>
+      <c r="AR36" s="122"/>
+      <c r="AS36" s="122"/>
+      <c r="AT36" s="122"/>
+      <c r="AU36" s="122"/>
+      <c r="AV36" s="122"/>
+      <c r="AW36" s="122"/>
+      <c r="AX36" s="122"/>
+      <c r="AY36" s="122"/>
+      <c r="AZ36" s="122"/>
+      <c r="BA36" s="122"/>
+      <c r="BB36" s="123"/>
       <c r="BO36" s="15"/>
       <c r="BZ36" s="17"/>
       <c r="CA36" s="15"/>
@@ -5094,41 +5374,41 @@
       <c r="EF36" s="36"/>
       <c r="EG36" s="36"/>
       <c r="EH36" s="37"/>
-      <c r="EI36" s="115"/>
-      <c r="EJ36" s="116"/>
-      <c r="EK36" s="116"/>
-      <c r="EL36" s="116"/>
-      <c r="EM36" s="116"/>
-      <c r="EN36" s="116"/>
-      <c r="EO36" s="116"/>
-      <c r="EP36" s="116"/>
-      <c r="EQ36" s="116"/>
-      <c r="ER36" s="116"/>
-      <c r="ES36" s="116"/>
-      <c r="ET36" s="117"/>
-      <c r="EU36" s="103"/>
-      <c r="EV36" s="104"/>
-      <c r="EW36" s="104"/>
-      <c r="EX36" s="104"/>
-      <c r="EY36" s="104"/>
-      <c r="EZ36" s="104"/>
-      <c r="FA36" s="104"/>
-      <c r="FB36" s="104"/>
-      <c r="FC36" s="104"/>
-      <c r="FD36" s="104"/>
-      <c r="FE36" s="104"/>
-      <c r="FF36" s="105"/>
+      <c r="EI36" s="133"/>
+      <c r="EJ36" s="134"/>
+      <c r="EK36" s="134"/>
+      <c r="EL36" s="134"/>
+      <c r="EM36" s="134"/>
+      <c r="EN36" s="134"/>
+      <c r="EO36" s="134"/>
+      <c r="EP36" s="134"/>
+      <c r="EQ36" s="134"/>
+      <c r="ER36" s="134"/>
+      <c r="ES36" s="134"/>
+      <c r="ET36" s="135"/>
+      <c r="EU36" s="121"/>
+      <c r="EV36" s="122"/>
+      <c r="EW36" s="122"/>
+      <c r="EX36" s="122"/>
+      <c r="EY36" s="122"/>
+      <c r="EZ36" s="122"/>
+      <c r="FA36" s="122"/>
+      <c r="FB36" s="122"/>
+      <c r="FC36" s="122"/>
+      <c r="FD36" s="122"/>
+      <c r="FE36" s="122"/>
+      <c r="FF36" s="123"/>
     </row>
     <row r="37" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
       <c r="D37" s="26">
         <v>5</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="78" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="34"/>
@@ -5155,7 +5435,7 @@
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="79"/>
+      <c r="AD37" s="72"/>
       <c r="AE37" s="13"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="14"/>
@@ -5167,19 +5447,19 @@
       <c r="AM37" s="14"/>
       <c r="AN37" s="14"/>
       <c r="AO37" s="14"/>
-      <c r="AP37" s="79"/>
-      <c r="AQ37" s="103"/>
-      <c r="AR37" s="104"/>
-      <c r="AS37" s="104"/>
-      <c r="AT37" s="104"/>
-      <c r="AU37" s="104"/>
-      <c r="AV37" s="104"/>
-      <c r="AW37" s="104"/>
-      <c r="AX37" s="104"/>
-      <c r="AY37" s="104"/>
-      <c r="AZ37" s="104"/>
-      <c r="BA37" s="104"/>
-      <c r="BB37" s="105"/>
+      <c r="AP37" s="72"/>
+      <c r="AQ37" s="121"/>
+      <c r="AR37" s="122"/>
+      <c r="AS37" s="122"/>
+      <c r="AT37" s="122"/>
+      <c r="AU37" s="122"/>
+      <c r="AV37" s="122"/>
+      <c r="AW37" s="122"/>
+      <c r="AX37" s="122"/>
+      <c r="AY37" s="122"/>
+      <c r="AZ37" s="122"/>
+      <c r="BA37" s="122"/>
+      <c r="BB37" s="123"/>
       <c r="BC37" s="14"/>
       <c r="BD37" s="14"/>
       <c r="BE37" s="14"/>
@@ -5203,7 +5483,7 @@
       <c r="BW37" s="14"/>
       <c r="BX37" s="14"/>
       <c r="BY37" s="14"/>
-      <c r="BZ37" s="79"/>
+      <c r="BZ37" s="72"/>
       <c r="CA37" s="13"/>
       <c r="CB37" s="14"/>
       <c r="CC37" s="14"/>
@@ -5215,7 +5495,7 @@
       <c r="CI37" s="14"/>
       <c r="CJ37" s="14"/>
       <c r="CK37" s="14"/>
-      <c r="CL37" s="79"/>
+      <c r="CL37" s="72"/>
       <c r="CM37" s="14"/>
       <c r="CN37" s="14"/>
       <c r="CO37" s="14"/>
@@ -5227,7 +5507,7 @@
       <c r="CU37" s="14"/>
       <c r="CV37" s="14"/>
       <c r="CW37" s="14"/>
-      <c r="CX37" s="79"/>
+      <c r="CX37" s="72"/>
       <c r="CY37" s="14"/>
       <c r="CZ37" s="14"/>
       <c r="DA37" s="14"/>
@@ -5239,7 +5519,7 @@
       <c r="DG37" s="14"/>
       <c r="DH37" s="14"/>
       <c r="DI37" s="14"/>
-      <c r="DJ37" s="79"/>
+      <c r="DJ37" s="72"/>
       <c r="DK37" s="14"/>
       <c r="DL37" s="14"/>
       <c r="DM37" s="14"/>
@@ -5251,7 +5531,7 @@
       <c r="DS37" s="14"/>
       <c r="DT37" s="14"/>
       <c r="DU37" s="14"/>
-      <c r="DV37" s="79"/>
+      <c r="DV37" s="72"/>
       <c r="DW37" s="14"/>
       <c r="DX37" s="14"/>
       <c r="DY37" s="14"/>
@@ -5263,7 +5543,7 @@
       <c r="EE37" s="14"/>
       <c r="EF37" s="14"/>
       <c r="EG37" s="14"/>
-      <c r="EH37" s="79"/>
+      <c r="EH37" s="72"/>
       <c r="EI37" s="14"/>
       <c r="EJ37" s="14"/>
       <c r="EK37" s="14"/>
@@ -5275,32 +5555,32 @@
       <c r="EQ37" s="14"/>
       <c r="ER37" s="14"/>
       <c r="ES37" s="14"/>
-      <c r="ET37" s="79"/>
-      <c r="EU37" s="103"/>
-      <c r="EV37" s="104"/>
-      <c r="EW37" s="104"/>
-      <c r="EX37" s="104"/>
-      <c r="EY37" s="104"/>
-      <c r="EZ37" s="104"/>
-      <c r="FA37" s="104"/>
-      <c r="FB37" s="104"/>
-      <c r="FC37" s="104"/>
-      <c r="FD37" s="104"/>
-      <c r="FE37" s="104"/>
-      <c r="FF37" s="105"/>
+      <c r="ET37" s="72"/>
+      <c r="EU37" s="121"/>
+      <c r="EV37" s="122"/>
+      <c r="EW37" s="122"/>
+      <c r="EX37" s="122"/>
+      <c r="EY37" s="122"/>
+      <c r="EZ37" s="122"/>
+      <c r="FA37" s="122"/>
+      <c r="FB37" s="122"/>
+      <c r="FC37" s="122"/>
+      <c r="FD37" s="122"/>
+      <c r="FE37" s="122"/>
+      <c r="FF37" s="123"/>
     </row>
     <row r="38" spans="1:162" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="93">
+      <c r="D38" s="85">
         <v>5</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="85" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="34"/>
@@ -5340,18 +5620,18 @@
       <c r="AN38" s="36"/>
       <c r="AO38" s="36"/>
       <c r="AP38" s="37"/>
-      <c r="AQ38" s="103"/>
-      <c r="AR38" s="104"/>
-      <c r="AS38" s="104"/>
-      <c r="AT38" s="104"/>
-      <c r="AU38" s="104"/>
-      <c r="AV38" s="104"/>
-      <c r="AW38" s="104"/>
-      <c r="AX38" s="104"/>
-      <c r="AY38" s="104"/>
-      <c r="AZ38" s="104"/>
-      <c r="BA38" s="104"/>
-      <c r="BB38" s="105"/>
+      <c r="AQ38" s="121"/>
+      <c r="AR38" s="122"/>
+      <c r="AS38" s="122"/>
+      <c r="AT38" s="122"/>
+      <c r="AU38" s="122"/>
+      <c r="AV38" s="122"/>
+      <c r="AW38" s="122"/>
+      <c r="AX38" s="122"/>
+      <c r="AY38" s="122"/>
+      <c r="AZ38" s="122"/>
+      <c r="BA38" s="122"/>
+      <c r="BB38" s="123"/>
       <c r="BC38" s="35"/>
       <c r="BD38" s="36"/>
       <c r="BE38" s="36"/>
@@ -5437,22 +5717,22 @@
       <c r="EG38" s="36"/>
       <c r="EH38" s="37"/>
       <c r="ET38" s="17"/>
-      <c r="EU38" s="103"/>
-      <c r="EV38" s="104"/>
-      <c r="EW38" s="104"/>
-      <c r="EX38" s="104"/>
-      <c r="EY38" s="104"/>
-      <c r="EZ38" s="104"/>
-      <c r="FA38" s="104"/>
-      <c r="FB38" s="104"/>
-      <c r="FC38" s="104"/>
-      <c r="FD38" s="104"/>
-      <c r="FE38" s="104"/>
-      <c r="FF38" s="105"/>
+      <c r="EU38" s="121"/>
+      <c r="EV38" s="122"/>
+      <c r="EW38" s="122"/>
+      <c r="EX38" s="122"/>
+      <c r="EY38" s="122"/>
+      <c r="EZ38" s="122"/>
+      <c r="FA38" s="122"/>
+      <c r="FB38" s="122"/>
+      <c r="FC38" s="122"/>
+      <c r="FD38" s="122"/>
+      <c r="FE38" s="122"/>
+      <c r="FF38" s="123"/>
     </row>
     <row r="39" spans="1:162" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95" t="s">
+      <c r="A39" s="86"/>
+      <c r="B39" s="87" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -5470,18 +5750,18 @@
       <c r="AD39" s="19"/>
       <c r="AE39" s="22"/>
       <c r="AP39" s="19"/>
-      <c r="AQ39" s="106"/>
-      <c r="AR39" s="107"/>
-      <c r="AS39" s="107"/>
-      <c r="AT39" s="107"/>
-      <c r="AU39" s="107"/>
-      <c r="AV39" s="107"/>
-      <c r="AW39" s="107"/>
-      <c r="AX39" s="107"/>
-      <c r="AY39" s="107"/>
-      <c r="AZ39" s="107"/>
-      <c r="BA39" s="107"/>
-      <c r="BB39" s="108"/>
+      <c r="AQ39" s="124"/>
+      <c r="AR39" s="125"/>
+      <c r="AS39" s="125"/>
+      <c r="AT39" s="125"/>
+      <c r="AU39" s="125"/>
+      <c r="AV39" s="125"/>
+      <c r="AW39" s="125"/>
+      <c r="AX39" s="125"/>
+      <c r="AY39" s="125"/>
+      <c r="AZ39" s="125"/>
+      <c r="BA39" s="125"/>
+      <c r="BB39" s="126"/>
       <c r="BO39" s="22"/>
       <c r="BZ39" s="19"/>
       <c r="CA39" s="22"/>
@@ -5502,26 +5782,21 @@
       <c r="ER39" s="20"/>
       <c r="ES39" s="20"/>
       <c r="ET39" s="29"/>
-      <c r="EU39" s="106"/>
-      <c r="EV39" s="107"/>
-      <c r="EW39" s="107"/>
-      <c r="EX39" s="107"/>
-      <c r="EY39" s="107"/>
-      <c r="EZ39" s="107"/>
-      <c r="FA39" s="107"/>
-      <c r="FB39" s="107"/>
-      <c r="FC39" s="107"/>
-      <c r="FD39" s="107"/>
-      <c r="FE39" s="107"/>
-      <c r="FF39" s="108"/>
+      <c r="EU39" s="124"/>
+      <c r="EV39" s="125"/>
+      <c r="EW39" s="125"/>
+      <c r="EX39" s="125"/>
+      <c r="EY39" s="125"/>
+      <c r="EZ39" s="125"/>
+      <c r="FA39" s="125"/>
+      <c r="FB39" s="125"/>
+      <c r="FC39" s="125"/>
+      <c r="FD39" s="125"/>
+      <c r="FE39" s="125"/>
+      <c r="FF39" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="G3:R3"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A37:C37"/>
     <mergeCell ref="EU4:FF39"/>
     <mergeCell ref="EI4:ET36"/>
     <mergeCell ref="S3:AD3"/>
@@ -5537,6 +5812,11 @@
     <mergeCell ref="CA3:CL3"/>
     <mergeCell ref="CM3:CX3"/>
     <mergeCell ref="CY3:DJ3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="G3:R3"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
